--- a/draft/20221212/metadata_schema-xafs.xlsx
+++ b/draft/20221212/metadata_schema-xafs.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\matumot\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\マイドライブ\Github\matumot\xafs-schema\draft\20221212\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="27468" windowHeight="13980" firstSheet="1" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="27468" windowHeight="13980"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="1" r:id="rId1"/>
@@ -6560,7 +6560,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C999"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.59765625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
@@ -9229,7 +9229,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I1003"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="A48" sqref="A47:A48"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.59765625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
@@ -10832,9 +10834,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H979"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.59765625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
@@ -12755,9 +12755,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H1058"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.59765625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
@@ -15668,9 +15666,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:H17"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
@@ -16075,9 +16071,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:H17"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>

--- a/draft/20221212/metadata_schema-xafs.xlsx
+++ b/draft/20221212/metadata_schema-xafs.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="27468" windowHeight="13980"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="27468" windowHeight="13980" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1275" uniqueCount="852">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1275" uniqueCount="853">
   <si>
     <t>シート名</t>
   </si>
@@ -5989,6 +5989,10 @@
   </si>
   <si>
     <t>atmosphere,voltage,current,coordinate,optical, thermal,mechanical,polarization</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>optional</t>
     <phoneticPr fontId="3"/>
   </si>
 </sst>
@@ -6560,7 +6564,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C999"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.59765625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
@@ -7754,7 +7758,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H988"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.59765625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
@@ -7822,7 +7826,7 @@
         <v>93</v>
       </c>
       <c r="B3" s="22" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="C3" s="5" t="s">
         <v>414</v>
@@ -7924,7 +7928,7 @@
         <v>97</v>
       </c>
       <c r="B8" s="22" t="s">
-        <v>94</v>
+        <v>852</v>
       </c>
       <c r="C8" s="5" t="s">
         <v>417</v>

--- a/draft/20221212/metadata_schema-xafs.xlsx
+++ b/draft/20221212/metadata_schema-xafs.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="27468" windowHeight="13980" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="27468" windowHeight="13980"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1275" uniqueCount="853">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1276" uniqueCount="854">
   <si>
     <t>シート名</t>
   </si>
@@ -4163,10 +4163,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>diameter,radius, thickness</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>gas,solid,liquid,film</t>
     <phoneticPr fontId="3"/>
   </si>
@@ -5993,6 +5989,14 @@
   </si>
   <si>
     <t>optional</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>diameter,radius,thickness</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>diameter,radius,thickness</t>
     <phoneticPr fontId="3"/>
   </si>
 </sst>
@@ -6564,7 +6568,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C999"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.59765625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
@@ -7758,7 +7762,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H988"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.59765625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
@@ -7769,7 +7773,7 @@
     <col min="5" max="5" width="31.59765625" customWidth="1"/>
     <col min="6" max="6" width="19.3984375" customWidth="1"/>
     <col min="7" max="7" width="38.09765625" customWidth="1"/>
-    <col min="8" max="8" width="16.09765625" customWidth="1"/>
+    <col min="8" max="8" width="20.09765625" customWidth="1"/>
     <col min="9" max="25" width="7.59765625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -7862,9 +7866,7 @@
       <c r="F4" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="G4" s="5" t="s">
-        <v>421</v>
-      </c>
+      <c r="G4" s="5"/>
       <c r="H4" s="5"/>
     </row>
     <row r="5" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -7889,7 +7891,9 @@
       <c r="G5" s="5" t="s">
         <v>421</v>
       </c>
-      <c r="H5" s="5"/>
+      <c r="H5" s="5" t="s">
+        <v>421</v>
+      </c>
     </row>
     <row r="6" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="22"/>
@@ -7928,7 +7932,7 @@
         <v>97</v>
       </c>
       <c r="B8" s="22" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="C8" s="5" t="s">
         <v>417</v>
@@ -7989,7 +7993,9 @@
       <c r="G10" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="H10" s="5"/>
+      <c r="H10" s="6" t="s">
+        <v>104</v>
+      </c>
     </row>
     <row r="11" spans="1:8" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="22"/>
@@ -8029,7 +8035,7 @@
     </row>
     <row r="13" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="22" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="B13" s="22" t="s">
         <v>16</v>
@@ -8209,7 +8215,7 @@
     </row>
     <row r="21" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="22" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="B21" s="22" t="s">
         <v>16</v>
@@ -9530,7 +9536,7 @@
     </row>
     <row r="13" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="B13" s="4" t="s">
         <v>16</v>
@@ -10719,7 +10725,7 @@
     </row>
     <row r="8" spans="1:9" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A8" s="18" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="B8" s="19" t="s">
         <v>89</v>
@@ -10739,7 +10745,7 @@
     </row>
     <row r="9" spans="1:9" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A9" s="18" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="B9" s="19" t="s">
         <v>89</v>
@@ -10761,7 +10767,7 @@
     </row>
     <row r="10" spans="1:9" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A10" s="18" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="B10" s="19" t="s">
         <v>89</v>
@@ -10783,7 +10789,7 @@
     </row>
     <row r="11" spans="1:9" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A11" s="18" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="B11" s="19" t="s">
         <v>89</v>
@@ -10807,7 +10813,7 @@
     </row>
     <row r="12" spans="1:9" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A12" s="18" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="B12" s="19" t="s">
         <v>355</v>
@@ -10881,7 +10887,7 @@
     </row>
     <row r="2" spans="1:8" ht="67.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>16</v>
@@ -11157,17 +11163,17 @@
     </row>
     <row r="16" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="B16" s="4" t="s">
         <v>16</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="D16" s="13"/>
       <c r="E16" s="13" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="F16" s="5"/>
       <c r="G16" s="5"/>
@@ -11175,7 +11181,7 @@
     </row>
     <row r="17" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="B17" s="4" t="s">
         <v>16</v>
@@ -11185,7 +11191,7 @@
       </c>
       <c r="D17" s="13"/>
       <c r="E17" s="13" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="F17" s="5"/>
       <c r="G17" s="5"/>
@@ -11193,7 +11199,7 @@
     </row>
     <row r="18" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="B18" s="4" t="s">
         <v>16</v>
@@ -11203,7 +11209,7 @@
       </c>
       <c r="D18" s="13"/>
       <c r="E18" s="13" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="F18" s="5"/>
       <c r="G18" s="5"/>
@@ -11221,7 +11227,7 @@
     </row>
     <row r="20" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>16</v>
@@ -11241,7 +11247,7 @@
     </row>
     <row r="21" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="B21" s="5" t="s">
         <v>16</v>
@@ -11263,7 +11269,7 @@
     </row>
     <row r="22" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>16</v>
@@ -11285,7 +11291,7 @@
     </row>
     <row r="23" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="B23" s="5" t="s">
         <v>16</v>
@@ -11307,7 +11313,7 @@
     </row>
     <row r="24" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>16</v>
@@ -11327,7 +11333,7 @@
     </row>
     <row r="25" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>16</v>
@@ -11349,7 +11355,7 @@
     </row>
     <row r="26" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="B26" s="5" t="s">
         <v>16</v>
@@ -11371,7 +11377,7 @@
     </row>
     <row r="27" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="B27" s="5" t="s">
         <v>16</v>
@@ -11393,7 +11399,7 @@
     </row>
     <row r="28" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>16</v>
@@ -11415,7 +11421,7 @@
     </row>
     <row r="29" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="B29" s="5" t="s">
         <v>16</v>
@@ -12759,7 +12765,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H1058"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A7" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.59765625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
@@ -12811,7 +12817,7 @@
         <v>274</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="E2" s="5" t="s">
         <v>276</v>
@@ -12831,7 +12837,7 @@
         <v>157</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="E3" s="5" t="s">
         <v>277</v>
@@ -12844,7 +12850,7 @@
     </row>
     <row r="4" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>16</v>
@@ -12853,13 +12859,13 @@
         <v>99</v>
       </c>
       <c r="D4" s="13" t="s">
+        <v>837</v>
+      </c>
+      <c r="E4" s="5" t="s">
         <v>838</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="F4" s="5" t="s">
         <v>839</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>840</v>
       </c>
       <c r="G4" s="5"/>
       <c r="H4" s="5"/>
@@ -12988,7 +12994,7 @@
         <v>222</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="D11" s="5" t="s">
         <v>299</v>
@@ -13241,7 +13247,7 @@
         <v>193</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="E23" s="5" t="s">
         <v>339</v>
@@ -13281,7 +13287,7 @@
         <v>157</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="E25" s="5" t="s">
         <v>344</v>
@@ -13294,7 +13300,7 @@
     </row>
     <row r="26" spans="1:8" ht="25.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="B26" s="4" t="s">
         <v>222</v>
@@ -13303,10 +13309,10 @@
         <v>157</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="E26" s="5" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="F26" s="6" t="s">
         <v>345</v>
@@ -13325,7 +13331,7 @@
         <v>157</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="E27" s="5" t="s">
         <v>347</v>
@@ -13347,7 +13353,7 @@
         <v>350</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="E28" s="5" t="s">
         <v>382</v>
@@ -13366,10 +13372,10 @@
         <v>222</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="E29" s="5" t="s">
         <v>451</v>
@@ -13625,7 +13631,7 @@
         <v>157</v>
       </c>
       <c r="D41" s="5" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="E41" s="5" t="s">
         <v>457</v>
@@ -13669,7 +13675,7 @@
         <v>159</v>
       </c>
       <c r="D43" s="5" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="E43" s="5" t="s">
         <v>465</v>
@@ -13713,7 +13719,7 @@
         <v>159</v>
       </c>
       <c r="D45" s="5" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="E45" s="5" t="s">
         <v>468</v>
@@ -13735,7 +13741,7 @@
         <v>157</v>
       </c>
       <c r="D46" s="5" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="E46" s="5" t="s">
         <v>469</v>
@@ -13757,7 +13763,7 @@
         <v>471</v>
       </c>
       <c r="D47" s="5" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="E47" s="5" t="s">
         <v>472</v>
@@ -14502,11 +14508,11 @@
         <v>105</v>
       </c>
       <c r="C89" s="5" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="D89" s="5"/>
       <c r="E89" s="5" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="F89" s="5"/>
       <c r="G89" s="5"/>
@@ -14520,11 +14526,11 @@
         <v>105</v>
       </c>
       <c r="C90" s="5" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="D90" s="5"/>
       <c r="E90" s="5" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="F90" s="5"/>
       <c r="G90" s="5"/>
@@ -14538,11 +14544,11 @@
         <v>105</v>
       </c>
       <c r="C91" s="5" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="D91" s="5"/>
       <c r="E91" s="5" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="F91" s="5"/>
       <c r="G91" s="5"/>
@@ -14556,11 +14562,11 @@
         <v>105</v>
       </c>
       <c r="C92" s="5" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="D92" s="5"/>
       <c r="E92" s="5" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="F92" s="5"/>
       <c r="G92" s="5"/>
@@ -14574,11 +14580,11 @@
         <v>105</v>
       </c>
       <c r="C93" s="5" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="D93" s="5"/>
       <c r="E93" s="5" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="F93" s="5"/>
       <c r="G93" s="5"/>
@@ -14592,11 +14598,11 @@
         <v>105</v>
       </c>
       <c r="C94" s="5" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="D94" s="5"/>
       <c r="E94" s="5" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="F94" s="5"/>
       <c r="G94" s="5"/>
@@ -14610,11 +14616,11 @@
         <v>105</v>
       </c>
       <c r="C95" s="5" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="D95" s="5"/>
       <c r="E95" s="5" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="F95" s="5"/>
       <c r="G95" s="5"/>
@@ -14628,13 +14634,13 @@
         <v>105</v>
       </c>
       <c r="C96" s="5" t="s">
+        <v>729</v>
+      </c>
+      <c r="D96" s="5" t="s">
         <v>730</v>
       </c>
-      <c r="D96" s="5" t="s">
+      <c r="E96" s="5" t="s">
         <v>731</v>
-      </c>
-      <c r="E96" s="5" t="s">
-        <v>732</v>
       </c>
       <c r="F96" s="5"/>
       <c r="G96" s="5"/>
@@ -14648,13 +14654,13 @@
         <v>105</v>
       </c>
       <c r="C97" s="5" t="s">
+        <v>732</v>
+      </c>
+      <c r="D97" s="5" t="s">
         <v>733</v>
       </c>
-      <c r="D97" s="5" t="s">
+      <c r="E97" s="5" t="s">
         <v>734</v>
-      </c>
-      <c r="E97" s="5" t="s">
-        <v>735</v>
       </c>
       <c r="F97" s="5"/>
       <c r="G97" s="5"/>
@@ -14668,13 +14674,13 @@
         <v>105</v>
       </c>
       <c r="C98" s="5" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="D98" s="5" t="s">
+        <v>735</v>
+      </c>
+      <c r="E98" s="5" t="s">
         <v>736</v>
-      </c>
-      <c r="E98" s="5" t="s">
-        <v>737</v>
       </c>
       <c r="F98" s="5"/>
       <c r="G98" s="5"/>
@@ -14688,13 +14694,13 @@
         <v>105</v>
       </c>
       <c r="C99" s="5" t="s">
+        <v>737</v>
+      </c>
+      <c r="D99" s="5" t="s">
         <v>738</v>
       </c>
-      <c r="D99" s="5" t="s">
+      <c r="E99" s="5" t="s">
         <v>739</v>
-      </c>
-      <c r="E99" s="5" t="s">
-        <v>740</v>
       </c>
       <c r="F99" s="5"/>
       <c r="G99" s="5"/>
@@ -15712,7 +15718,7 @@
     </row>
     <row r="2" spans="1:8" ht="15" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>89</v>
@@ -15721,10 +15727,10 @@
         <v>99</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="F2" s="33" t="s">
         <v>620</v>
@@ -15737,16 +15743,16 @@
         <v>605</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="C3" s="5" t="s">
+        <v>756</v>
+      </c>
+      <c r="D3" s="5" t="s">
         <v>757</v>
       </c>
-      <c r="D3" s="5" t="s">
-        <v>758</v>
-      </c>
       <c r="E3" s="5" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="F3" s="33" t="s">
         <v>621</v>
@@ -15759,16 +15765,16 @@
         <v>606</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="C4" s="5" t="s">
         <v>99</v>
       </c>
       <c r="D4" s="5" t="s">
+        <v>758</v>
+      </c>
+      <c r="E4" s="5" t="s">
         <v>759</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>760</v>
       </c>
       <c r="F4" s="33" t="s">
         <v>622</v>
@@ -15781,16 +15787,16 @@
         <v>607</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="F5" s="33" t="s">
         <v>624</v>
@@ -15809,10 +15815,10 @@
         <v>99</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="F6" s="33">
         <v>1234567</v>
@@ -15825,16 +15831,16 @@
         <v>609</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="F7" s="33"/>
       <c r="G7" s="5"/>
@@ -15845,16 +15851,16 @@
         <v>610</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="C8" s="5" t="s">
         <v>623</v>
       </c>
       <c r="D8" s="5" t="s">
+        <v>763</v>
+      </c>
+      <c r="E8" s="5" t="s">
         <v>764</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>765</v>
       </c>
       <c r="F8" s="33"/>
       <c r="G8" s="5"/>
@@ -15865,16 +15871,16 @@
         <v>611</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="C9" s="5" t="s">
         <v>99</v>
       </c>
       <c r="D9" s="5" t="s">
+        <v>765</v>
+      </c>
+      <c r="E9" s="5" t="s">
         <v>766</v>
-      </c>
-      <c r="E9" s="5" t="s">
-        <v>767</v>
       </c>
       <c r="F9" s="34" t="s">
         <v>625</v>
@@ -15892,10 +15898,10 @@
         <v>89</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="E10" s="5" t="s">
         <v>640</v>
@@ -15913,23 +15919,23 @@
         <v>613</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="C11" s="5" t="s">
         <v>99</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="F11" s="33" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="G11" s="5"/>
       <c r="H11" s="5" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
@@ -15940,14 +15946,14 @@
         <v>89</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="D12" s="5"/>
       <c r="E12" s="5" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="F12" s="33" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="G12" s="5"/>
       <c r="H12" s="5"/>
@@ -15960,16 +15966,16 @@
         <v>89</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="D13" s="5" t="s">
+        <v>769</v>
+      </c>
+      <c r="E13" s="5" t="s">
         <v>770</v>
       </c>
-      <c r="E13" s="5" t="s">
-        <v>771</v>
-      </c>
       <c r="F13" s="33" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="G13" s="5"/>
       <c r="H13" s="5"/>
@@ -15979,23 +15985,23 @@
         <v>616</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="D14" s="5" t="s">
+        <v>771</v>
+      </c>
+      <c r="E14" s="5" t="s">
         <v>772</v>
       </c>
-      <c r="E14" s="5" t="s">
-        <v>773</v>
-      </c>
       <c r="F14" s="33" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="G14" s="5"/>
       <c r="H14" s="5" t="s">
-        <v>664</v>
+        <v>852</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
@@ -16003,16 +16009,16 @@
         <v>617</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="C15" s="5" t="s">
         <v>601</v>
       </c>
       <c r="D15" s="5" t="s">
+        <v>774</v>
+      </c>
+      <c r="E15" s="5" t="s">
         <v>775</v>
-      </c>
-      <c r="E15" s="5" t="s">
-        <v>776</v>
       </c>
       <c r="F15" s="33">
         <v>2</v>
@@ -16025,19 +16031,19 @@
         <v>618</v>
       </c>
       <c r="B16" s="5" t="s">
+        <v>743</v>
+      </c>
+      <c r="C16" s="5" t="s">
         <v>744</v>
       </c>
-      <c r="C16" s="5" t="s">
-        <v>745</v>
-      </c>
       <c r="D16" s="5" t="s">
+        <v>776</v>
+      </c>
+      <c r="E16" s="5" t="s">
         <v>777</v>
       </c>
-      <c r="E16" s="5" t="s">
-        <v>778</v>
-      </c>
       <c r="F16" s="33" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="G16" s="5"/>
       <c r="H16" s="5"/>
@@ -16047,16 +16053,16 @@
         <v>619</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="C17" s="5" t="s">
         <v>99</v>
       </c>
       <c r="D17" s="5" t="s">
+        <v>778</v>
+      </c>
+      <c r="E17" s="5" t="s">
         <v>779</v>
-      </c>
-      <c r="E17" s="5" t="s">
-        <v>780</v>
       </c>
       <c r="F17" s="33"/>
       <c r="G17" s="5"/>
@@ -16075,7 +16081,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H18"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D61" sqref="D61"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
@@ -16093,7 +16101,7 @@
         <v>7</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>9</v>
@@ -16125,7 +16133,7 @@
         <v>99</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="E2" s="5" t="s">
         <v>642</v>
@@ -16144,10 +16152,10 @@
         <v>89</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="E3" s="5" t="s">
         <v>643</v>
@@ -16163,13 +16171,13 @@
         <v>631</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="C4" s="5" t="s">
         <v>99</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="E4" s="5" t="s">
         <v>644</v>
@@ -16188,10 +16196,10 @@
         <v>89</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="E5" s="5" t="s">
         <v>645</v>
@@ -16210,10 +16218,10 @@
         <v>89</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="E6" s="5" t="s">
         <v>646</v>
@@ -16229,19 +16237,19 @@
         <v>634</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="E7" s="5" t="s">
         <v>647</v>
       </c>
       <c r="F7" s="33" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="G7" s="5"/>
       <c r="H7" s="5"/>
@@ -16251,13 +16259,13 @@
         <v>635</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="C8" s="5" t="s">
         <v>623</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="E8" s="5" t="s">
         <v>648</v>
@@ -16274,10 +16282,10 @@
         <v>89</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="E9" s="5" t="s">
         <v>649</v>
@@ -16295,13 +16303,13 @@
         <v>637</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="C10" s="5" t="s">
         <v>99</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="E10" s="5" t="s">
         <v>650</v>
@@ -16322,10 +16330,10 @@
         <v>89</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="E11" s="5" t="s">
         <v>651</v>
@@ -16335,7 +16343,7 @@
       </c>
       <c r="G11" s="5"/>
       <c r="H11" s="5" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
@@ -16346,67 +16354,67 @@
         <v>89</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="D12" s="5"/>
       <c r="E12" s="5" t="s">
         <v>641</v>
       </c>
       <c r="F12" s="33" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="G12" s="5"/>
       <c r="H12" s="5"/>
     </row>
     <row r="13" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>89</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="E13" s="5" t="s">
         <v>652</v>
       </c>
       <c r="F13" s="33" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="G13" s="5"/>
       <c r="H13" s="5"/>
     </row>
     <row r="14" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="C14" s="5" t="s">
         <v>99</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="E14" s="5" t="s">
         <v>653</v>
       </c>
       <c r="F14" s="33" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="G14" s="5"/>
       <c r="H14" s="5" t="s">
-        <v>664</v>
+        <v>853</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="B15" s="5" t="s">
         <v>89</v>
@@ -16415,7 +16423,7 @@
         <v>601</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="E15" s="5" t="s">
         <v>654</v>
@@ -16428,29 +16436,29 @@
     </row>
     <row r="16" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="E16" s="5" t="s">
         <v>655</v>
       </c>
       <c r="F16" s="33" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="G16" s="5"/>
       <c r="H16" s="5"/>
     </row>
     <row r="17" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="B17" s="5" t="s">
         <v>89</v>
@@ -16459,7 +16467,7 @@
         <v>99</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="E17" s="5" t="s">
         <v>656</v>
@@ -16529,65 +16537,65 @@
     </row>
     <row r="2" spans="1:8" ht="43.8" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>159</v>
       </c>
       <c r="D2" s="5" t="s">
+        <v>803</v>
+      </c>
+      <c r="E2" s="5" t="s">
         <v>804</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>805</v>
       </c>
       <c r="F2" s="5">
         <v>300</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="H2" s="5"/>
     </row>
     <row r="3" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="B3" s="5" t="s">
+        <v>677</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>805</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>806</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>801</v>
+      </c>
+      <c r="F3" s="5" t="s">
         <v>678</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>806</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>807</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>802</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>679</v>
       </c>
       <c r="G3" s="6"/>
       <c r="H3" s="5"/>
     </row>
     <row r="4" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="C4" s="5" t="s">
+        <v>807</v>
+      </c>
+      <c r="D4" s="5" t="s">
         <v>808</v>
       </c>
-      <c r="D4" s="5" t="s">
-        <v>809</v>
-      </c>
       <c r="E4" s="5" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="F4" s="5"/>
       <c r="G4" s="6"/>
@@ -16595,41 +16603,41 @@
     </row>
     <row r="5" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="D5" s="5" t="s">
+        <v>809</v>
+      </c>
+      <c r="E5" s="5" t="s">
         <v>810</v>
       </c>
-      <c r="E5" s="5" t="s">
-        <v>811</v>
-      </c>
       <c r="F5" s="5" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="G5" s="6"/>
       <c r="H5" s="5"/>
     </row>
     <row r="6" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="C6" s="5" t="s">
         <v>90</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="F6" s="5"/>
       <c r="G6" s="6"/>
@@ -16637,29 +16645,29 @@
     </row>
     <row r="7" spans="1:8" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="D7" s="5" t="s">
+        <v>812</v>
+      </c>
+      <c r="E7" s="5" t="s">
         <v>813</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>814</v>
       </c>
       <c r="F7" s="5"/>
       <c r="G7" s="6"/>
       <c r="H7" s="6" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>89</v>
@@ -16668,32 +16676,32 @@
         <v>99</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="G8" s="6"/>
       <c r="H8" s="5"/>
     </row>
     <row r="9" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="C9" s="5" t="s">
+        <v>815</v>
+      </c>
+      <c r="D9" s="5" t="s">
         <v>816</v>
       </c>
-      <c r="D9" s="5" t="s">
-        <v>817</v>
-      </c>
       <c r="E9" s="5" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="F9" s="5"/>
       <c r="G9" s="6"/>
@@ -16701,7 +16709,7 @@
     </row>
     <row r="10" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>89</v>
@@ -16710,20 +16718,20 @@
         <v>99</v>
       </c>
       <c r="D10" s="5" t="s">
+        <v>817</v>
+      </c>
+      <c r="E10" s="5" t="s">
         <v>818</v>
       </c>
-      <c r="E10" s="5" t="s">
+      <c r="F10" s="5" t="s">
         <v>819</v>
-      </c>
-      <c r="F10" s="5" t="s">
-        <v>820</v>
       </c>
       <c r="G10" s="6"/>
       <c r="H10" s="5"/>
     </row>
     <row r="11" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="B11" s="5" t="s">
         <v>89</v>
@@ -16732,13 +16740,13 @@
         <v>99</v>
       </c>
       <c r="D11" s="13" t="s">
+        <v>847</v>
+      </c>
+      <c r="E11" s="5" t="s">
         <v>848</v>
       </c>
-      <c r="E11" s="5" t="s">
+      <c r="F11" s="5" t="s">
         <v>849</v>
-      </c>
-      <c r="F11" s="5" t="s">
-        <v>850</v>
       </c>
       <c r="G11" s="6"/>
       <c r="H11" s="5"/>

--- a/draft/20221212/metadata_schema-xafs.xlsx
+++ b/draft/20221212/metadata_schema-xafs.xlsx
@@ -372,10 +372,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>contractor, principal investigator, head of the institution</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>optional</t>
     <phoneticPr fontId="3"/>
   </si>
@@ -5997,6 +5993,10 @@
   </si>
   <si>
     <t>diameter,radius,thickness</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>contractor, principal investigator, head of the institution,responsible</t>
     <phoneticPr fontId="3"/>
   </si>
 </sst>
@@ -6580,7 +6580,7 @@
   <sheetData>
     <row r="1" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B1" s="5"/>
       <c r="C1" s="5"/>
@@ -6599,7 +6599,7 @@
     </row>
     <row r="4" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="13" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="B4" s="5"/>
       <c r="C4" s="5"/>
@@ -6633,148 +6633,148 @@
     </row>
     <row r="8" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="10" t="s">
+        <v>443</v>
+      </c>
+      <c r="B8" s="23" t="s">
         <v>444</v>
-      </c>
-      <c r="B8" s="23" t="s">
-        <v>445</v>
       </c>
       <c r="C8" s="5"/>
     </row>
     <row r="9" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="10" t="s">
+        <v>445</v>
+      </c>
+      <c r="B9" s="23" t="s">
         <v>446</v>
-      </c>
-      <c r="B9" s="23" t="s">
-        <v>447</v>
       </c>
       <c r="C9" s="5"/>
     </row>
     <row r="10" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="10" t="s">
+        <v>447</v>
+      </c>
+      <c r="B10" s="23" t="s">
         <v>448</v>
-      </c>
-      <c r="B10" s="23" t="s">
-        <v>449</v>
       </c>
       <c r="C10" s="5"/>
     </row>
     <row r="11" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="10" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="B11" s="23" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="C11" s="5"/>
     </row>
     <row r="12" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="10" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="B12" s="23" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="10" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="B13" s="23" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="15" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="16" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="25" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="29.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="26" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C17" s="27" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A18" s="10" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="B18" s="23" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="C18" s="25" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="10" t="s">
+        <v>564</v>
+      </c>
+      <c r="B19" s="23" t="s">
+        <v>574</v>
+      </c>
+      <c r="C19" s="28" t="s">
         <v>565</v>
-      </c>
-      <c r="B19" s="23" t="s">
-        <v>575</v>
-      </c>
-      <c r="C19" s="28" t="s">
-        <v>566</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="10" t="s">
+        <v>566</v>
+      </c>
+      <c r="B20" s="23" t="s">
+        <v>575</v>
+      </c>
+      <c r="C20" s="28" t="s">
         <v>567</v>
-      </c>
-      <c r="B20" s="23" t="s">
-        <v>576</v>
-      </c>
-      <c r="C20" s="28" t="s">
-        <v>568</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="10" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="B21" s="23" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="10" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="B22" s="23" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="10" t="s">
+        <v>579</v>
+      </c>
+      <c r="B23" s="23" t="s">
         <v>580</v>
-      </c>
-      <c r="B23" s="23" t="s">
-        <v>581</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="10" t="s">
+        <v>571</v>
+      </c>
+      <c r="B24" s="23" t="s">
         <v>572</v>
-      </c>
-      <c r="B24" s="23" t="s">
-        <v>573</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="10" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="B25" s="23" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="C25" s="28" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -7794,10 +7794,10 @@
         <v>10</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="H1" s="3" t="s">
         <v>86</v>
@@ -7811,7 +7811,7 @@
         <v>19</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="D2" s="5" t="s">
         <v>38</v>
@@ -7833,13 +7833,13 @@
         <v>89</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="F3" s="6" t="s">
         <v>101</v>
@@ -7855,7 +7855,7 @@
         <v>19</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="D4" s="5" t="s">
         <v>36</v>
@@ -7877,22 +7877,22 @@
         <v>19</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="F5" s="6" t="s">
         <v>98</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -7913,7 +7913,7 @@
         <v>19</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="D7" s="5" t="s">
         <v>44</v>
@@ -7932,10 +7932,10 @@
         <v>97</v>
       </c>
       <c r="B8" s="22" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="D8" s="5" t="s">
         <v>45</v>
@@ -7966,14 +7966,14 @@
         <v>43</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="G9" s="6"/>
       <c r="H9" s="5"/>
     </row>
     <row r="10" spans="1:8" ht="45.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="22" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B10" s="22" t="s">
         <v>19</v>
@@ -7982,19 +7982,19 @@
         <v>99</v>
       </c>
       <c r="D10" s="5" t="s">
+        <v>423</v>
+      </c>
+      <c r="E10" s="5" t="s">
         <v>424</v>
       </c>
-      <c r="E10" s="5" t="s">
+      <c r="F10" s="5" t="s">
         <v>425</v>
       </c>
-      <c r="F10" s="5" t="s">
-        <v>426</v>
-      </c>
       <c r="G10" s="6" t="s">
-        <v>104</v>
+        <v>853</v>
       </c>
       <c r="H10" s="6" t="s">
-        <v>104</v>
+        <v>853</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -8012,7 +8012,7 @@
         <v>28</v>
       </c>
       <c r="B12" s="22" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C12" s="5" t="s">
         <v>99</v>
@@ -8027,7 +8027,7 @@
         <v>31</v>
       </c>
       <c r="G12" s="5" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="H12" s="5" t="s">
         <v>87</v>
@@ -8035,13 +8035,13 @@
     </row>
     <row r="13" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="22" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="B13" s="22" t="s">
         <v>16</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="D13" s="5" t="s">
         <v>25</v>
@@ -8057,19 +8057,19 @@
     </row>
     <row r="14" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="22" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B14" s="22" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C14" s="5" t="s">
         <v>24</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F14" s="5"/>
       <c r="G14" s="5"/>
@@ -8077,7 +8077,7 @@
     </row>
     <row r="15" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="22" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B15" s="22" t="s">
         <v>94</v>
@@ -8086,10 +8086,10 @@
         <v>24</v>
       </c>
       <c r="D15" s="5" t="s">
+        <v>428</v>
+      </c>
+      <c r="E15" s="5" t="s">
         <v>429</v>
-      </c>
-      <c r="E15" s="5" t="s">
-        <v>430</v>
       </c>
       <c r="F15" s="5"/>
       <c r="G15" s="5"/>
@@ -8106,16 +8106,16 @@
         <v>33</v>
       </c>
       <c r="D16" s="5" t="s">
+        <v>430</v>
+      </c>
+      <c r="E16" s="5" t="s">
         <v>431</v>
       </c>
-      <c r="E16" s="5" t="s">
+      <c r="F16" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="G16" s="5" t="s">
         <v>432</v>
-      </c>
-      <c r="F16" s="6" t="s">
-        <v>110</v>
-      </c>
-      <c r="G16" s="5" t="s">
-        <v>433</v>
       </c>
       <c r="H16" s="5"/>
     </row>
@@ -8130,16 +8130,16 @@
         <v>33</v>
       </c>
       <c r="D17" s="5" t="s">
+        <v>433</v>
+      </c>
+      <c r="E17" s="5" t="s">
         <v>434</v>
       </c>
-      <c r="E17" s="5" t="s">
+      <c r="F17" s="6" t="s">
         <v>435</v>
       </c>
-      <c r="F17" s="6" t="s">
+      <c r="G17" s="5" t="s">
         <v>436</v>
-      </c>
-      <c r="G17" s="5" t="s">
-        <v>437</v>
       </c>
       <c r="H17" s="5"/>
     </row>
@@ -8148,7 +8148,7 @@
         <v>12</v>
       </c>
       <c r="B18" s="22" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C18" s="5" t="s">
         <v>13</v>
@@ -8160,10 +8160,10 @@
         <v>15</v>
       </c>
       <c r="F18" s="6" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G18" s="6" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="H18" s="5"/>
     </row>
@@ -8172,10 +8172,10 @@
         <v>18</v>
       </c>
       <c r="B19" s="22" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="D19" s="5" t="s">
         <v>20</v>
@@ -8184,10 +8184,10 @@
         <v>21</v>
       </c>
       <c r="F19" s="5" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="G19" s="5" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="H19" s="5"/>
     </row>
@@ -8196,38 +8196,38 @@
         <v>22</v>
       </c>
       <c r="B20" s="22" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C20" s="5" t="s">
+        <v>439</v>
+      </c>
+      <c r="D20" s="5" t="s">
         <v>440</v>
-      </c>
-      <c r="D20" s="5" t="s">
-        <v>441</v>
       </c>
       <c r="E20" s="5" t="s">
         <v>23</v>
       </c>
       <c r="F20" s="6" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G20" s="5"/>
       <c r="H20" s="5"/>
     </row>
     <row r="21" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="22" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="B21" s="22" t="s">
         <v>16</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F21" s="5"/>
       <c r="G21" s="4"/>
@@ -8235,19 +8235,19 @@
     </row>
     <row r="22" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="22" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B22" s="22" t="s">
         <v>16</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F22" s="5"/>
       <c r="G22" s="5"/>
@@ -9274,7 +9274,7 @@
         <v>11</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="H1" s="3" t="s">
         <v>86</v>
@@ -9283,7 +9283,7 @@
     </row>
     <row r="2" spans="1:9" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>94</v>
@@ -9292,13 +9292,13 @@
         <v>99</v>
       </c>
       <c r="D2" s="13" t="s">
+        <v>118</v>
+      </c>
+      <c r="E2" s="5" t="s">
         <v>119</v>
       </c>
-      <c r="E2" s="5" t="s">
-        <v>120</v>
-      </c>
       <c r="F2" s="5" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G2" s="5"/>
       <c r="H2" s="5"/>
@@ -9306,7 +9306,7 @@
     </row>
     <row r="3" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>94</v>
@@ -9315,13 +9315,13 @@
         <v>99</v>
       </c>
       <c r="D3" s="13" t="s">
+        <v>121</v>
+      </c>
+      <c r="E3" s="5" t="s">
         <v>122</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="F3" s="5" t="s">
         <v>123</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>124</v>
       </c>
       <c r="G3" s="5"/>
       <c r="H3" s="5"/>
@@ -9358,7 +9358,7 @@
         <v>16</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D5" s="5" t="s">
         <v>52</v>
@@ -9450,7 +9450,7 @@
         <v>16</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D9" s="5" t="s">
         <v>63</v>
@@ -9459,7 +9459,7 @@
         <v>64</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G9" s="5"/>
       <c r="H9" s="5"/>
@@ -9511,32 +9511,32 @@
     </row>
     <row r="12" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B12" s="4" t="s">
         <v>16</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D12" s="13" t="s">
+        <v>129</v>
+      </c>
+      <c r="E12" s="5" t="s">
         <v>130</v>
       </c>
-      <c r="E12" s="5" t="s">
+      <c r="F12" s="5" t="s">
         <v>131</v>
-      </c>
-      <c r="F12" s="5" t="s">
-        <v>132</v>
       </c>
       <c r="G12" s="5"/>
       <c r="H12" s="5" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="I12" s="5"/>
     </row>
     <row r="13" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="B13" s="4" t="s">
         <v>16</v>
@@ -9545,13 +9545,13 @@
         <v>99</v>
       </c>
       <c r="D13" s="13" t="s">
+        <v>132</v>
+      </c>
+      <c r="E13" s="13" t="s">
         <v>133</v>
       </c>
-      <c r="E13" s="13" t="s">
+      <c r="F13" s="5" t="s">
         <v>134</v>
-      </c>
-      <c r="F13" s="5" t="s">
-        <v>135</v>
       </c>
       <c r="G13" s="5"/>
       <c r="H13" s="5"/>
@@ -10592,7 +10592,7 @@
         <v>11</v>
       </c>
       <c r="G1" s="16" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H1" s="17" t="s">
         <v>86</v>
@@ -10601,7 +10601,7 @@
     </row>
     <row r="2" spans="1:9" ht="15" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A2" s="18" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B2" s="19" t="s">
         <v>89</v>
@@ -10610,10 +10610,10 @@
         <v>90</v>
       </c>
       <c r="D2" s="20" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="E2" s="19" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="F2" s="19"/>
       <c r="G2" s="19"/>
@@ -10621,13 +10621,13 @@
     </row>
     <row r="3" spans="1:9" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
+        <v>353</v>
+      </c>
+      <c r="B3" s="19" t="s">
         <v>354</v>
       </c>
-      <c r="B3" s="19" t="s">
-        <v>355</v>
-      </c>
       <c r="C3" s="19" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D3" s="19"/>
       <c r="E3" s="19"/>
@@ -10637,63 +10637,63 @@
     </row>
     <row r="4" spans="1:9" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B4" s="19" t="s">
         <v>89</v>
       </c>
       <c r="C4" s="19" t="s">
+        <v>355</v>
+      </c>
+      <c r="D4" s="19" t="s">
+        <v>372</v>
+      </c>
+      <c r="E4" s="19" t="s">
         <v>356</v>
       </c>
-      <c r="D4" s="19" t="s">
-        <v>373</v>
-      </c>
-      <c r="E4" s="19" t="s">
+      <c r="F4" s="19" t="s">
         <v>357</v>
-      </c>
-      <c r="F4" s="19" t="s">
-        <v>358</v>
       </c>
       <c r="G4" s="19"/>
       <c r="H4" s="19"/>
     </row>
     <row r="5" spans="1:9" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A5" s="18" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B5" s="19" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="C5" s="19" t="s">
         <v>99</v>
       </c>
       <c r="D5" s="19" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="E5" s="19" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F5" s="19" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="G5" s="19"/>
       <c r="H5" s="19"/>
     </row>
     <row r="6" spans="1:9" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A6" s="18" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B6" s="19" t="s">
         <v>89</v>
       </c>
       <c r="C6" s="19" t="s">
+        <v>360</v>
+      </c>
+      <c r="D6" s="19" t="s">
+        <v>374</v>
+      </c>
+      <c r="E6" s="19" t="s">
         <v>361</v>
-      </c>
-      <c r="D6" s="19" t="s">
-        <v>375</v>
-      </c>
-      <c r="E6" s="19" t="s">
-        <v>362</v>
       </c>
       <c r="F6" s="18">
         <v>9809</v>
@@ -10703,19 +10703,19 @@
     </row>
     <row r="7" spans="1:9" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A7" s="18" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B7" s="19" t="s">
         <v>89</v>
       </c>
       <c r="C7" s="19" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="D7" s="21" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="E7" s="21" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F7" s="19">
         <v>3</v>
@@ -10725,7 +10725,7 @@
     </row>
     <row r="8" spans="1:9" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A8" s="18" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="B8" s="19" t="s">
         <v>89</v>
@@ -10734,10 +10734,10 @@
         <v>90</v>
       </c>
       <c r="D8" s="19" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="E8" s="19" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="F8" s="19"/>
       <c r="G8" s="19"/>
@@ -10745,7 +10745,7 @@
     </row>
     <row r="9" spans="1:9" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A9" s="18" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="B9" s="19" t="s">
         <v>89</v>
@@ -10754,20 +10754,20 @@
         <v>99</v>
       </c>
       <c r="D9" s="19" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="E9" s="21" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F9" s="19" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="G9" s="19"/>
       <c r="H9" s="19"/>
     </row>
     <row r="10" spans="1:9" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A10" s="18" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="B10" s="19" t="s">
         <v>89</v>
@@ -10776,59 +10776,59 @@
         <v>99</v>
       </c>
       <c r="D10" s="19" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="E10" s="19" t="s">
+        <v>364</v>
+      </c>
+      <c r="F10" s="19" t="s">
         <v>365</v>
-      </c>
-      <c r="F10" s="19" t="s">
-        <v>366</v>
       </c>
       <c r="G10" s="19"/>
       <c r="H10" s="19"/>
     </row>
     <row r="11" spans="1:9" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A11" s="18" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="B11" s="19" t="s">
         <v>89</v>
       </c>
       <c r="C11" s="19" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="D11" s="19" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="E11" s="19" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F11" s="19" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="G11" s="19"/>
       <c r="H11" s="19" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A12" s="18" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="B12" s="19" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="C12" s="19" t="s">
+        <v>368</v>
+      </c>
+      <c r="D12" s="19" t="s">
+        <v>380</v>
+      </c>
+      <c r="E12" s="19" t="s">
         <v>369</v>
       </c>
-      <c r="D12" s="19" t="s">
-        <v>381</v>
-      </c>
-      <c r="E12" s="19" t="s">
+      <c r="F12" s="19" t="s">
         <v>370</v>
-      </c>
-      <c r="F12" s="19" t="s">
-        <v>371</v>
       </c>
       <c r="G12" s="19"/>
       <c r="H12" s="19"/>
@@ -10876,10 +10876,10 @@
         <v>76</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H1" s="3" t="s">
         <v>86</v>
@@ -10887,7 +10887,7 @@
     </row>
     <row r="2" spans="1:8" ht="67.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>16</v>
@@ -10896,16 +10896,16 @@
         <v>99</v>
       </c>
       <c r="D2" s="13" t="s">
+        <v>146</v>
+      </c>
+      <c r="E2" s="5" t="s">
         <v>147</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="F2" s="6" t="s">
         <v>148</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="G2" s="6" t="s">
         <v>149</v>
-      </c>
-      <c r="G2" s="6" t="s">
-        <v>150</v>
       </c>
       <c r="H2" s="5"/>
     </row>
@@ -10921,41 +10921,41 @@
     </row>
     <row r="4" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>16</v>
       </c>
       <c r="C4" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="D4" s="13" t="s">
+        <v>155</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="F4" s="5" t="s">
         <v>157</v>
-      </c>
-      <c r="D4" s="13" t="s">
-        <v>156</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>174</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>158</v>
       </c>
       <c r="G4" s="5"/>
       <c r="H4" s="5"/>
     </row>
     <row r="5" spans="1:8" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>16</v>
       </c>
       <c r="C5" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="D5" s="13" t="s">
         <v>159</v>
       </c>
-      <c r="D5" s="13" t="s">
-        <v>160</v>
-      </c>
       <c r="E5" s="6" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="F5" s="5">
         <v>4000</v>
@@ -10965,63 +10965,63 @@
     </row>
     <row r="6" spans="1:8" ht="22.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>16</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D6" s="13" t="s">
+        <v>160</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="F6" s="5" t="s">
         <v>161</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>183</v>
-      </c>
-      <c r="F6" s="5" t="s">
-        <v>162</v>
       </c>
       <c r="G6" s="5"/>
       <c r="H6" s="5"/>
     </row>
     <row r="7" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>16</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D7" s="13" t="s">
+        <v>162</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="F7" s="5" t="s">
         <v>163</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>179</v>
-      </c>
-      <c r="F7" s="5" t="s">
-        <v>164</v>
       </c>
       <c r="G7" s="5"/>
       <c r="H7" s="5"/>
     </row>
     <row r="8" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>16</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D8" s="13" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F8" s="5"/>
       <c r="G8" s="5"/>
@@ -11029,19 +11029,19 @@
     </row>
     <row r="9" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B9" s="4" t="s">
         <v>16</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D9" s="13" t="s">
+        <v>165</v>
+      </c>
+      <c r="E9" s="5" t="s">
         <v>166</v>
-      </c>
-      <c r="E9" s="5" t="s">
-        <v>167</v>
       </c>
       <c r="F9" s="5"/>
       <c r="G9" s="5"/>
@@ -11049,19 +11049,19 @@
     </row>
     <row r="10" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B10" s="4" t="s">
         <v>16</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D10" s="13" t="s">
+        <v>176</v>
+      </c>
+      <c r="E10" s="5" t="s">
         <v>177</v>
-      </c>
-      <c r="E10" s="5" t="s">
-        <v>178</v>
       </c>
       <c r="F10" s="5"/>
       <c r="G10" s="5"/>
@@ -11069,13 +11069,13 @@
     </row>
     <row r="11" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B11" s="4" t="s">
         <v>16</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D11" s="5" t="s">
         <v>80</v>
@@ -11089,19 +11089,19 @@
     </row>
     <row r="12" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B12" s="4" t="s">
         <v>16</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D12" s="13" t="s">
+        <v>184</v>
+      </c>
+      <c r="E12" s="5" t="s">
         <v>185</v>
-      </c>
-      <c r="E12" s="5" t="s">
-        <v>186</v>
       </c>
       <c r="F12" s="5"/>
       <c r="G12" s="5"/>
@@ -11109,17 +11109,17 @@
     </row>
     <row r="13" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B13" s="4" t="s">
         <v>16</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D13" s="13"/>
       <c r="E13" s="13" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="F13" s="5"/>
       <c r="G13" s="5"/>
@@ -11127,17 +11127,17 @@
     </row>
     <row r="14" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B14" s="4" t="s">
         <v>16</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D14" s="13"/>
       <c r="E14" s="13" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="F14" s="5"/>
       <c r="G14" s="5"/>
@@ -11145,17 +11145,17 @@
     </row>
     <row r="15" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B15" s="4" t="s">
         <v>16</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D15" s="13"/>
       <c r="E15" s="13" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="F15" s="5"/>
       <c r="G15" s="5"/>
@@ -11163,17 +11163,17 @@
     </row>
     <row r="16" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="B16" s="4" t="s">
         <v>16</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="D16" s="13"/>
       <c r="E16" s="13" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="F16" s="5"/>
       <c r="G16" s="5"/>
@@ -11181,17 +11181,17 @@
     </row>
     <row r="17" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="B17" s="4" t="s">
         <v>16</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D17" s="13"/>
       <c r="E17" s="13" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="F17" s="5"/>
       <c r="G17" s="5"/>
@@ -11199,7 +11199,7 @@
     </row>
     <row r="18" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="B18" s="4" t="s">
         <v>16</v>
@@ -11209,7 +11209,7 @@
       </c>
       <c r="D18" s="13"/>
       <c r="E18" s="13" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="F18" s="5"/>
       <c r="G18" s="5"/>
@@ -11227,19 +11227,19 @@
     </row>
     <row r="20" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>16</v>
       </c>
       <c r="C20" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="D20" s="14" t="s">
         <v>193</v>
       </c>
-      <c r="D20" s="14" t="s">
-        <v>194</v>
-      </c>
       <c r="E20" s="6" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="F20" s="5"/>
       <c r="G20" s="5"/>
@@ -11247,41 +11247,41 @@
     </row>
     <row r="21" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="B21" s="5" t="s">
         <v>16</v>
       </c>
       <c r="C21" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="D21" s="14" t="s">
         <v>195</v>
       </c>
-      <c r="D21" s="14" t="s">
+      <c r="E21" s="6" t="s">
         <v>196</v>
       </c>
-      <c r="E21" s="6" t="s">
-        <v>197</v>
-      </c>
       <c r="F21" s="5" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="G21" s="5"/>
       <c r="H21" s="5"/>
     </row>
     <row r="22" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>16</v>
       </c>
       <c r="C22" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="D22" s="14" t="s">
         <v>198</v>
       </c>
-      <c r="D22" s="14" t="s">
-        <v>199</v>
-      </c>
       <c r="E22" s="6" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="F22" s="5">
         <v>3500</v>
@@ -11291,41 +11291,41 @@
     </row>
     <row r="23" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="B23" s="5" t="s">
         <v>16</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D23" s="14" t="s">
+        <v>200</v>
+      </c>
+      <c r="E23" s="6" t="s">
+        <v>204</v>
+      </c>
+      <c r="F23" s="5" t="s">
         <v>201</v>
-      </c>
-      <c r="E23" s="6" t="s">
-        <v>205</v>
-      </c>
-      <c r="F23" s="5" t="s">
-        <v>202</v>
       </c>
       <c r="G23" s="5"/>
       <c r="H23" s="5"/>
     </row>
     <row r="24" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>16</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D24" s="13" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E24" s="6" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="F24" s="5"/>
       <c r="G24" s="5"/>
@@ -11333,41 +11333,41 @@
     </row>
     <row r="25" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>16</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D25" s="13" t="s">
+        <v>206</v>
+      </c>
+      <c r="E25" s="6" t="s">
         <v>207</v>
       </c>
-      <c r="E25" s="6" t="s">
+      <c r="F25" s="5" t="s">
         <v>208</v>
-      </c>
-      <c r="F25" s="5" t="s">
-        <v>209</v>
       </c>
       <c r="G25" s="5"/>
       <c r="H25" s="5"/>
     </row>
     <row r="26" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="B26" s="5" t="s">
         <v>16</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D26" s="13" t="s">
+        <v>209</v>
+      </c>
+      <c r="E26" s="5" t="s">
         <v>210</v>
-      </c>
-      <c r="E26" s="5" t="s">
-        <v>211</v>
       </c>
       <c r="F26" s="5">
         <v>4</v>
@@ -11377,66 +11377,66 @@
     </row>
     <row r="27" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="B27" s="5" t="s">
         <v>16</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D27" s="13" t="s">
+        <v>211</v>
+      </c>
+      <c r="E27" s="5" t="s">
         <v>212</v>
       </c>
-      <c r="E27" s="5" t="s">
+      <c r="F27" s="5" t="s">
         <v>213</v>
-      </c>
-      <c r="F27" s="5" t="s">
-        <v>214</v>
       </c>
       <c r="G27" s="5"/>
       <c r="H27" s="5"/>
     </row>
     <row r="28" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>16</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D28" s="13" t="s">
+        <v>214</v>
+      </c>
+      <c r="E28" s="5" t="s">
         <v>215</v>
       </c>
-      <c r="E28" s="5" t="s">
+      <c r="F28" s="5" t="s">
         <v>216</v>
-      </c>
-      <c r="F28" s="5" t="s">
-        <v>217</v>
       </c>
       <c r="G28" s="5"/>
       <c r="H28" s="5"/>
     </row>
     <row r="29" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="B29" s="5" t="s">
         <v>16</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D29" s="13" t="s">
+        <v>217</v>
+      </c>
+      <c r="E29" s="5" t="s">
         <v>218</v>
       </c>
-      <c r="E29" s="5" t="s">
+      <c r="F29" s="5" t="s">
         <v>219</v>
-      </c>
-      <c r="F29" s="5" t="s">
-        <v>220</v>
       </c>
       <c r="G29" s="5"/>
       <c r="H29" s="5"/>
@@ -11453,19 +11453,19 @@
     </row>
     <row r="31" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
+        <v>220</v>
+      </c>
+      <c r="B31" s="5" t="s">
         <v>221</v>
       </c>
-      <c r="B31" s="5" t="s">
+      <c r="C31" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="D31" s="13" t="s">
         <v>222</v>
       </c>
-      <c r="C31" s="5" t="s">
-        <v>193</v>
-      </c>
-      <c r="D31" s="13" t="s">
+      <c r="E31" s="5" t="s">
         <v>223</v>
-      </c>
-      <c r="E31" s="5" t="s">
-        <v>224</v>
       </c>
       <c r="F31" s="5"/>
       <c r="G31" s="5"/>
@@ -11473,41 +11473,41 @@
     </row>
     <row r="32" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="s">
+        <v>225</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>221</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="D32" s="13" t="s">
         <v>226</v>
       </c>
-      <c r="B32" s="5" t="s">
-        <v>222</v>
-      </c>
-      <c r="C32" s="5" t="s">
-        <v>157</v>
-      </c>
-      <c r="D32" s="13" t="s">
+      <c r="E32" s="5" t="s">
         <v>227</v>
       </c>
-      <c r="E32" s="5" t="s">
+      <c r="F32" s="5" t="s">
         <v>228</v>
-      </c>
-      <c r="F32" s="5" t="s">
-        <v>229</v>
       </c>
       <c r="G32" s="5"/>
       <c r="H32" s="5"/>
     </row>
     <row r="33" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="s">
+        <v>229</v>
+      </c>
+      <c r="B33" s="5" t="s">
+        <v>221</v>
+      </c>
+      <c r="C33" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="D33" s="13" t="s">
         <v>230</v>
       </c>
-      <c r="B33" s="5" t="s">
-        <v>222</v>
-      </c>
-      <c r="C33" s="5" t="s">
-        <v>159</v>
-      </c>
-      <c r="D33" s="13" t="s">
+      <c r="E33" s="5" t="s">
         <v>231</v>
-      </c>
-      <c r="E33" s="5" t="s">
-        <v>232</v>
       </c>
       <c r="F33" s="5">
         <v>2000</v>
@@ -11517,41 +11517,41 @@
     </row>
     <row r="34" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
+        <v>232</v>
+      </c>
+      <c r="B34" s="5" t="s">
+        <v>221</v>
+      </c>
+      <c r="C34" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="D34" s="13" t="s">
         <v>233</v>
       </c>
-      <c r="B34" s="5" t="s">
-        <v>222</v>
-      </c>
-      <c r="C34" s="5" t="s">
-        <v>157</v>
-      </c>
-      <c r="D34" s="13" t="s">
+      <c r="E34" s="5" t="s">
         <v>234</v>
       </c>
-      <c r="E34" s="5" t="s">
-        <v>235</v>
-      </c>
       <c r="F34" s="5" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="G34" s="5"/>
       <c r="H34" s="5"/>
     </row>
     <row r="35" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="4" t="s">
+        <v>235</v>
+      </c>
+      <c r="B35" s="5" t="s">
+        <v>221</v>
+      </c>
+      <c r="C35" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="D35" s="13" t="s">
         <v>236</v>
       </c>
-      <c r="B35" s="5" t="s">
-        <v>222</v>
-      </c>
-      <c r="C35" s="5" t="s">
-        <v>157</v>
-      </c>
-      <c r="D35" s="13" t="s">
+      <c r="E35" s="5" t="s">
         <v>237</v>
-      </c>
-      <c r="E35" s="5" t="s">
-        <v>238</v>
       </c>
       <c r="F35" s="5"/>
       <c r="G35" s="5"/>
@@ -11559,22 +11559,22 @@
     </row>
     <row r="36" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="B36" s="5" t="s">
+        <v>221</v>
+      </c>
+      <c r="C36" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="D36" s="13" t="s">
         <v>239</v>
       </c>
-      <c r="B36" s="5" t="s">
-        <v>222</v>
-      </c>
-      <c r="C36" s="5" t="s">
-        <v>157</v>
-      </c>
-      <c r="D36" s="13" t="s">
+      <c r="E36" s="5" t="s">
         <v>240</v>
       </c>
-      <c r="E36" s="5" t="s">
+      <c r="F36" s="5" t="s">
         <v>241</v>
-      </c>
-      <c r="F36" s="5" t="s">
-        <v>242</v>
       </c>
       <c r="G36" s="5"/>
       <c r="H36" s="5"/>
@@ -11591,7 +11591,7 @@
     </row>
     <row r="38" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="4" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B38" s="5" t="s">
         <v>16</v>
@@ -11611,63 +11611,63 @@
     </row>
     <row r="39" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="4" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B39" s="5" t="s">
         <v>16</v>
       </c>
       <c r="C39" s="5" t="s">
+        <v>244</v>
+      </c>
+      <c r="D39" s="14" t="s">
         <v>245</v>
       </c>
-      <c r="D39" s="14" t="s">
+      <c r="E39" s="5" t="s">
         <v>246</v>
       </c>
-      <c r="E39" s="5" t="s">
+      <c r="F39" s="5" t="s">
         <v>247</v>
-      </c>
-      <c r="F39" s="5" t="s">
-        <v>248</v>
       </c>
       <c r="G39" s="5"/>
       <c r="H39" s="5"/>
     </row>
     <row r="40" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="4" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B40" s="5" t="s">
         <v>16</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D40" s="13" t="s">
+        <v>249</v>
+      </c>
+      <c r="E40" s="5" t="s">
         <v>250</v>
       </c>
-      <c r="E40" s="5" t="s">
+      <c r="F40" s="5" t="s">
         <v>251</v>
-      </c>
-      <c r="F40" s="5" t="s">
-        <v>252</v>
       </c>
       <c r="G40" s="5"/>
       <c r="H40" s="5"/>
     </row>
     <row r="41" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="4" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B41" s="5" t="s">
         <v>16</v>
       </c>
       <c r="C41" s="5" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D41" s="13" t="s">
+        <v>253</v>
+      </c>
+      <c r="E41" s="5" t="s">
         <v>254</v>
-      </c>
-      <c r="E41" s="5" t="s">
-        <v>255</v>
       </c>
       <c r="F41" s="5">
         <v>1000</v>
@@ -11677,35 +11677,35 @@
     </row>
     <row r="42" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="4" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B42" s="5" t="s">
         <v>16</v>
       </c>
       <c r="C42" s="5" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D42" s="13" t="s">
+        <v>256</v>
+      </c>
+      <c r="E42" s="5" t="s">
         <v>257</v>
       </c>
-      <c r="E42" s="5" t="s">
-        <v>258</v>
-      </c>
       <c r="F42" s="5" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="G42" s="5"/>
       <c r="H42" s="5"/>
     </row>
     <row r="43" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="4" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B43" s="5" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C43" s="5" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D43" s="12" t="s">
         <v>82</v>
@@ -11721,35 +11721,35 @@
     </row>
     <row r="44" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="B44" s="5" t="s">
+        <v>221</v>
+      </c>
+      <c r="C44" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="D44" s="15" t="s">
         <v>260</v>
       </c>
-      <c r="B44" s="5" t="s">
-        <v>222</v>
-      </c>
-      <c r="C44" s="5" t="s">
-        <v>157</v>
-      </c>
-      <c r="D44" s="15" t="s">
+      <c r="E44" s="6" t="s">
         <v>261</v>
       </c>
-      <c r="E44" s="6" t="s">
+      <c r="F44" s="5" t="s">
         <v>262</v>
-      </c>
-      <c r="F44" s="5" t="s">
-        <v>263</v>
       </c>
       <c r="G44" s="5"/>
       <c r="H44" s="5"/>
     </row>
     <row r="45" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="4" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C45" s="5" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D45" s="12" t="s">
         <v>84</v>
@@ -11763,19 +11763,19 @@
     </row>
     <row r="46" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="B46" s="5" t="s">
+        <v>221</v>
+      </c>
+      <c r="C46" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="D46" s="15" t="s">
         <v>265</v>
       </c>
-      <c r="B46" s="5" t="s">
-        <v>222</v>
-      </c>
-      <c r="C46" s="5" t="s">
-        <v>157</v>
-      </c>
-      <c r="D46" s="15" t="s">
+      <c r="E46" s="6" t="s">
         <v>266</v>
-      </c>
-      <c r="E46" s="6" t="s">
-        <v>267</v>
       </c>
       <c r="F46" s="5"/>
       <c r="G46" s="5"/>
@@ -11783,19 +11783,19 @@
     </row>
     <row r="47" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="4" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B47" s="5" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C47" s="5" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D47" s="15" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="E47" s="6" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="F47" s="5"/>
       <c r="G47" s="5"/>
@@ -11803,19 +11803,19 @@
     </row>
     <row r="48" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="4" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B48" s="5" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C48" s="5" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D48" s="15" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="E48" s="6" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="F48" s="5"/>
       <c r="G48" s="5"/>
@@ -12785,7 +12785,7 @@
         <v>7</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>9</v>
@@ -12800,7 +12800,7 @@
         <v>77</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="H1" s="3" t="s">
         <v>86</v>
@@ -12808,19 +12808,19 @@
     </row>
     <row r="2" spans="1:8" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>16</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="F2" s="5"/>
       <c r="G2" s="5"/>
@@ -12828,29 +12828,29 @@
     </row>
     <row r="3" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>16</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="E3" s="5" t="s">
+        <v>276</v>
+      </c>
+      <c r="F3" s="5" t="s">
         <v>277</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>278</v>
       </c>
       <c r="G3" s="5"/>
       <c r="H3" s="5"/>
     </row>
     <row r="4" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>16</v>
@@ -12859,13 +12859,13 @@
         <v>99</v>
       </c>
       <c r="D4" s="13" t="s">
+        <v>836</v>
+      </c>
+      <c r="E4" s="5" t="s">
         <v>837</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="F4" s="5" t="s">
         <v>838</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>839</v>
       </c>
       <c r="G4" s="5"/>
       <c r="H4" s="5"/>
@@ -12882,19 +12882,19 @@
     </row>
     <row r="6" spans="1:8" ht="41.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="F6" s="7">
         <v>100000000</v>
@@ -12904,63 +12904,63 @@
     </row>
     <row r="7" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="G7" s="5"/>
       <c r="H7" s="5"/>
     </row>
     <row r="8" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D8" s="5" t="s">
+        <v>289</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>288</v>
+      </c>
+      <c r="F8" s="5" t="s">
         <v>290</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>289</v>
-      </c>
-      <c r="F8" s="5" t="s">
-        <v>291</v>
       </c>
       <c r="G8" s="5"/>
       <c r="H8" s="5"/>
     </row>
     <row r="9" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D9" s="5" t="s">
+        <v>291</v>
+      </c>
+      <c r="E9" s="5" t="s">
         <v>292</v>
-      </c>
-      <c r="E9" s="5" t="s">
-        <v>293</v>
       </c>
       <c r="F9" s="5"/>
       <c r="G9" s="5"/>
@@ -12968,19 +12968,19 @@
     </row>
     <row r="10" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
+        <v>294</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>221</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>296</v>
+      </c>
+      <c r="E10" s="5" t="s">
         <v>295</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>222</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>193</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>297</v>
-      </c>
-      <c r="E10" s="5" t="s">
-        <v>296</v>
       </c>
       <c r="F10" s="5"/>
       <c r="G10" s="5"/>
@@ -12988,41 +12988,41 @@
     </row>
     <row r="11" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
+        <v>297</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>221</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>840</v>
+      </c>
+      <c r="D11" s="5" t="s">
         <v>298</v>
       </c>
-      <c r="B11" s="4" t="s">
-        <v>222</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>841</v>
-      </c>
-      <c r="D11" s="5" t="s">
+      <c r="E11" s="5" t="s">
         <v>299</v>
       </c>
-      <c r="E11" s="5" t="s">
+      <c r="F11" s="5" t="s">
         <v>300</v>
-      </c>
-      <c r="F11" s="5" t="s">
-        <v>301</v>
       </c>
       <c r="G11" s="5"/>
       <c r="H11" s="5"/>
     </row>
     <row r="12" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
+        <v>301</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>221</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="D12" s="5" t="s">
         <v>302</v>
       </c>
-      <c r="B12" s="4" t="s">
-        <v>222</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>159</v>
-      </c>
-      <c r="D12" s="5" t="s">
+      <c r="E12" s="5" t="s">
         <v>303</v>
-      </c>
-      <c r="E12" s="5" t="s">
-        <v>304</v>
       </c>
       <c r="F12" s="5">
         <v>50</v>
@@ -13032,41 +13032,41 @@
     </row>
     <row r="13" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
+        <v>304</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>221</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="D13" s="5" t="s">
         <v>305</v>
       </c>
-      <c r="B13" s="4" t="s">
-        <v>222</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>157</v>
-      </c>
-      <c r="D13" s="5" t="s">
+      <c r="E13" s="5" t="s">
         <v>306</v>
       </c>
-      <c r="E13" s="5" t="s">
+      <c r="F13" s="5" t="s">
         <v>307</v>
-      </c>
-      <c r="F13" s="5" t="s">
-        <v>308</v>
       </c>
       <c r="G13" s="5"/>
       <c r="H13" s="5"/>
     </row>
     <row r="14" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
+        <v>308</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>221</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="D14" s="5" t="s">
         <v>309</v>
       </c>
-      <c r="B14" s="4" t="s">
-        <v>222</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>157</v>
-      </c>
-      <c r="D14" s="5" t="s">
+      <c r="E14" s="5" t="s">
         <v>310</v>
-      </c>
-      <c r="E14" s="5" t="s">
-        <v>311</v>
       </c>
       <c r="F14" s="5">
         <v>6514</v>
@@ -13076,19 +13076,19 @@
     </row>
     <row r="15" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
+        <v>311</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>221</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="D15" s="5" t="s">
         <v>312</v>
       </c>
-      <c r="B15" s="4" t="s">
-        <v>222</v>
-      </c>
-      <c r="C15" s="5" t="s">
-        <v>159</v>
-      </c>
-      <c r="D15" s="5" t="s">
-        <v>313</v>
-      </c>
       <c r="E15" s="5" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="F15" s="5">
         <v>1000</v>
@@ -13098,41 +13098,41 @@
     </row>
     <row r="16" spans="1:8" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
+        <v>313</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>221</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="D16" s="5" t="s">
         <v>314</v>
       </c>
-      <c r="B16" s="4" t="s">
-        <v>222</v>
-      </c>
-      <c r="C16" s="5" t="s">
-        <v>195</v>
-      </c>
-      <c r="D16" s="5" t="s">
-        <v>315</v>
-      </c>
       <c r="E16" s="5" t="s">
+        <v>316</v>
+      </c>
+      <c r="F16" s="5" t="s">
         <v>317</v>
-      </c>
-      <c r="F16" s="5" t="s">
-        <v>318</v>
       </c>
       <c r="G16" s="5"/>
       <c r="H16" s="5"/>
     </row>
     <row r="17" spans="1:8" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
+        <v>318</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>221</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>321</v>
+      </c>
+      <c r="E17" s="5" t="s">
         <v>319</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>222</v>
-      </c>
-      <c r="C17" s="5" t="s">
-        <v>159</v>
-      </c>
-      <c r="D17" s="5" t="s">
-        <v>322</v>
-      </c>
-      <c r="E17" s="5" t="s">
-        <v>320</v>
       </c>
       <c r="F17" s="7">
         <v>10000000</v>
@@ -13142,63 +13142,63 @@
     </row>
     <row r="18" spans="1:8" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D18" s="5" t="s">
+        <v>322</v>
+      </c>
+      <c r="E18" s="5" t="s">
         <v>323</v>
       </c>
-      <c r="E18" s="5" t="s">
+      <c r="F18" s="5" t="s">
         <v>324</v>
-      </c>
-      <c r="F18" s="5" t="s">
-        <v>325</v>
       </c>
       <c r="G18" s="5"/>
       <c r="H18" s="5"/>
     </row>
     <row r="19" spans="1:8" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
+        <v>325</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>221</v>
+      </c>
+      <c r="C19" s="5" t="s">
         <v>326</v>
       </c>
-      <c r="B19" s="4" t="s">
-        <v>222</v>
-      </c>
-      <c r="C19" s="5" t="s">
+      <c r="D19" s="5" t="s">
+        <v>328</v>
+      </c>
+      <c r="E19" s="5" t="s">
         <v>327</v>
       </c>
-      <c r="D19" s="5" t="s">
+      <c r="F19" s="5" t="s">
         <v>329</v>
-      </c>
-      <c r="E19" s="5" t="s">
-        <v>328</v>
-      </c>
-      <c r="F19" s="5" t="s">
-        <v>330</v>
       </c>
       <c r="G19" s="5"/>
       <c r="H19" s="5"/>
     </row>
     <row r="20" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
+        <v>330</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>221</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>326</v>
+      </c>
+      <c r="D20" s="5" t="s">
         <v>331</v>
       </c>
-      <c r="B20" s="4" t="s">
-        <v>222</v>
-      </c>
-      <c r="C20" s="5" t="s">
-        <v>327</v>
-      </c>
-      <c r="D20" s="5" t="s">
+      <c r="E20" s="5" t="s">
         <v>332</v>
-      </c>
-      <c r="E20" s="5" t="s">
-        <v>333</v>
       </c>
       <c r="F20" s="4">
         <v>6514</v>
@@ -13208,19 +13208,19 @@
     </row>
     <row r="21" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
+        <v>333</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>221</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>326</v>
+      </c>
+      <c r="D21" s="5" t="s">
         <v>334</v>
       </c>
-      <c r="B21" s="4" t="s">
-        <v>222</v>
-      </c>
-      <c r="C21" s="5" t="s">
-        <v>327</v>
-      </c>
-      <c r="D21" s="5" t="s">
+      <c r="E21" s="5" t="s">
         <v>335</v>
-      </c>
-      <c r="E21" s="5" t="s">
-        <v>336</v>
       </c>
       <c r="F21" s="5"/>
       <c r="G21" s="5"/>
@@ -13238,19 +13238,19 @@
     </row>
     <row r="23" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="F23" s="5"/>
       <c r="G23" s="5"/>
@@ -13258,105 +13258,105 @@
     </row>
     <row r="24" spans="1:8" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="D24" s="6"/>
       <c r="E24" s="6" t="s">
+        <v>340</v>
+      </c>
+      <c r="F24" s="6" t="s">
         <v>341</v>
-      </c>
-      <c r="F24" s="6" t="s">
-        <v>342</v>
       </c>
       <c r="G24" s="5"/>
       <c r="H24" s="5"/>
     </row>
     <row r="25" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
+        <v>342</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>221</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>705</v>
+      </c>
+      <c r="E25" s="5" t="s">
         <v>343</v>
       </c>
-      <c r="B25" s="4" t="s">
-        <v>222</v>
-      </c>
-      <c r="C25" s="5" t="s">
-        <v>157</v>
-      </c>
-      <c r="D25" s="5" t="s">
-        <v>706</v>
-      </c>
-      <c r="E25" s="5" t="s">
-        <v>344</v>
-      </c>
       <c r="F25" s="5" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="G25" s="5"/>
       <c r="H25" s="5"/>
     </row>
     <row r="26" spans="1:8" ht="25.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
+        <v>841</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>221</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>706</v>
+      </c>
+      <c r="E26" s="5" t="s">
         <v>842</v>
       </c>
-      <c r="B26" s="4" t="s">
-        <v>222</v>
-      </c>
-      <c r="C26" s="5" t="s">
-        <v>157</v>
-      </c>
-      <c r="D26" s="5" t="s">
-        <v>707</v>
-      </c>
-      <c r="E26" s="5" t="s">
-        <v>843</v>
-      </c>
       <c r="F26" s="6" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="G26" s="5"/>
       <c r="H26" s="5"/>
     </row>
     <row r="27" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
+        <v>345</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>221</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="D27" s="5" t="s">
+        <v>707</v>
+      </c>
+      <c r="E27" s="5" t="s">
         <v>346</v>
       </c>
-      <c r="B27" s="4" t="s">
-        <v>222</v>
-      </c>
-      <c r="C27" s="5" t="s">
-        <v>157</v>
-      </c>
-      <c r="D27" s="5" t="s">
-        <v>708</v>
-      </c>
-      <c r="E27" s="5" t="s">
+      <c r="F27" s="5" t="s">
         <v>347</v>
-      </c>
-      <c r="F27" s="5" t="s">
-        <v>348</v>
       </c>
       <c r="G27" s="5"/>
       <c r="H27" s="5"/>
     </row>
     <row r="28" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
+        <v>348</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>221</v>
+      </c>
+      <c r="C28" s="5" t="s">
         <v>349</v>
       </c>
-      <c r="B28" s="4" t="s">
-        <v>222</v>
-      </c>
-      <c r="C28" s="5" t="s">
-        <v>350</v>
-      </c>
       <c r="D28" s="5" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="E28" s="5" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="F28" s="5">
         <v>2</v>
@@ -13366,19 +13366,19 @@
     </row>
     <row r="29" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="E29" s="5" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="F29" s="5"/>
       <c r="G29" s="5"/>
@@ -13386,41 +13386,41 @@
     </row>
     <row r="30" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C30" s="5" t="s">
         <v>99</v>
       </c>
       <c r="D30" s="5" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="E30" s="5" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="F30" s="5" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="G30" s="5"/>
       <c r="H30" s="5"/>
     </row>
     <row r="31" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
+        <v>385</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>221</v>
+      </c>
+      <c r="C31" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="D31" s="5" t="s">
         <v>386</v>
       </c>
-      <c r="B31" s="4" t="s">
-        <v>222</v>
-      </c>
-      <c r="C31" s="5" t="s">
-        <v>159</v>
-      </c>
-      <c r="D31" s="5" t="s">
-        <v>387</v>
-      </c>
       <c r="E31" s="5" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="F31" s="5">
         <v>50</v>
@@ -13430,19 +13430,19 @@
     </row>
     <row r="32" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="s">
+        <v>389</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>221</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="D32" s="5" t="s">
         <v>390</v>
       </c>
-      <c r="B32" s="4" t="s">
-        <v>222</v>
-      </c>
-      <c r="C32" s="5" t="s">
-        <v>159</v>
-      </c>
-      <c r="D32" s="5" t="s">
+      <c r="E32" s="5" t="s">
         <v>391</v>
-      </c>
-      <c r="E32" s="5" t="s">
-        <v>392</v>
       </c>
       <c r="F32" s="5">
         <v>1500</v>
@@ -13452,41 +13452,41 @@
     </row>
     <row r="33" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="s">
+        <v>392</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>221</v>
+      </c>
+      <c r="C33" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="D33" s="5" t="s">
         <v>393</v>
       </c>
-      <c r="B33" s="4" t="s">
-        <v>222</v>
-      </c>
-      <c r="C33" s="5" t="s">
-        <v>157</v>
-      </c>
-      <c r="D33" s="5" t="s">
+      <c r="E33" s="5" t="s">
         <v>394</v>
       </c>
-      <c r="E33" s="5" t="s">
-        <v>395</v>
-      </c>
       <c r="F33" s="5" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="G33" s="5"/>
       <c r="H33" s="5"/>
     </row>
     <row r="34" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
+        <v>395</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>221</v>
+      </c>
+      <c r="C34" s="5" t="s">
+        <v>273</v>
+      </c>
+      <c r="D34" s="5" t="s">
         <v>396</v>
       </c>
-      <c r="B34" s="4" t="s">
-        <v>222</v>
-      </c>
-      <c r="C34" s="5" t="s">
-        <v>274</v>
-      </c>
-      <c r="D34" s="5" t="s">
+      <c r="E34" s="5" t="s">
         <v>397</v>
-      </c>
-      <c r="E34" s="5" t="s">
-        <v>398</v>
       </c>
       <c r="F34" s="5"/>
       <c r="G34" s="5"/>
@@ -13494,13 +13494,13 @@
     </row>
     <row r="35" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="4" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D35" s="5"/>
       <c r="E35" s="5"/>
@@ -13510,65 +13510,65 @@
     </row>
     <row r="36" spans="1:8" ht="53.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="4" t="s">
+        <v>399</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>221</v>
+      </c>
+      <c r="C36" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="D36" s="5" t="s">
         <v>400</v>
       </c>
-      <c r="B36" s="4" t="s">
-        <v>222</v>
-      </c>
-      <c r="C36" s="5" t="s">
-        <v>159</v>
-      </c>
-      <c r="D36" s="5" t="s">
+      <c r="E36" s="5" t="s">
         <v>401</v>
-      </c>
-      <c r="E36" s="5" t="s">
-        <v>402</v>
       </c>
       <c r="F36" s="7">
         <v>100000000</v>
       </c>
       <c r="G36" s="6" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="H36" s="5"/>
     </row>
     <row r="37" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="4" t="s">
+        <v>402</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>221</v>
+      </c>
+      <c r="C37" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="D37" s="5" t="s">
         <v>403</v>
       </c>
-      <c r="B37" s="4" t="s">
-        <v>222</v>
-      </c>
-      <c r="C37" s="5" t="s">
-        <v>157</v>
-      </c>
-      <c r="D37" s="5" t="s">
+      <c r="E37" s="5" t="s">
+        <v>279</v>
+      </c>
+      <c r="F37" s="5" t="s">
         <v>404</v>
-      </c>
-      <c r="E37" s="5" t="s">
-        <v>280</v>
-      </c>
-      <c r="F37" s="5" t="s">
-        <v>405</v>
       </c>
       <c r="G37" s="5"/>
       <c r="H37" s="5"/>
     </row>
     <row r="38" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="4" t="s">
+        <v>405</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>221</v>
+      </c>
+      <c r="C38" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="D38" s="5" t="s">
         <v>406</v>
       </c>
-      <c r="B38" s="4" t="s">
-        <v>222</v>
-      </c>
-      <c r="C38" s="5" t="s">
-        <v>193</v>
-      </c>
-      <c r="D38" s="5" t="s">
+      <c r="E38" s="5" t="s">
         <v>407</v>
-      </c>
-      <c r="E38" s="5" t="s">
-        <v>408</v>
       </c>
       <c r="F38" s="5"/>
       <c r="G38" s="5"/>
@@ -13576,109 +13576,109 @@
     </row>
     <row r="39" spans="1:8" ht="38.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="4" t="s">
+        <v>408</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>221</v>
+      </c>
+      <c r="C39" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="D39" s="5" t="s">
         <v>409</v>
       </c>
-      <c r="B39" s="4" t="s">
-        <v>222</v>
-      </c>
-      <c r="C39" s="5" t="s">
-        <v>157</v>
-      </c>
-      <c r="D39" s="5" t="s">
+      <c r="E39" s="5" t="s">
         <v>410</v>
       </c>
-      <c r="E39" s="5" t="s">
-        <v>411</v>
-      </c>
       <c r="F39" s="5" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="G39" s="6" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="H39" s="5"/>
     </row>
     <row r="40" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="4" t="s">
+        <v>452</v>
+      </c>
+      <c r="B40" s="4" t="s">
+        <v>221</v>
+      </c>
+      <c r="C40" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="D40" s="5" t="s">
         <v>453</v>
       </c>
-      <c r="B40" s="4" t="s">
-        <v>222</v>
-      </c>
-      <c r="C40" s="5" t="s">
-        <v>157</v>
-      </c>
-      <c r="D40" s="5" t="s">
+      <c r="E40" s="5" t="s">
         <v>454</v>
       </c>
-      <c r="E40" s="5" t="s">
-        <v>455</v>
-      </c>
       <c r="F40" s="5" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="G40" s="5"/>
       <c r="H40" s="5"/>
     </row>
     <row r="41" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="4" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C41" s="5" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D41" s="5" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="E41" s="5" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="F41" s="5" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="G41" s="5"/>
       <c r="H41" s="5"/>
     </row>
     <row r="42" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="4" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C42" s="5" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D42" s="5" t="s">
+        <v>461</v>
+      </c>
+      <c r="E42" s="5" t="s">
         <v>462</v>
       </c>
-      <c r="E42" s="5" t="s">
+      <c r="F42" s="5" t="s">
         <v>463</v>
-      </c>
-      <c r="F42" s="5" t="s">
-        <v>464</v>
       </c>
       <c r="G42" s="5"/>
       <c r="H42" s="5"/>
     </row>
     <row r="43" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="4" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C43" s="5" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D43" s="5" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="E43" s="5" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="F43" s="7">
         <v>1000000</v>
@@ -13688,41 +13688,41 @@
     </row>
     <row r="44" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="4" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C44" s="5" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D44" s="5" t="s">
+        <v>465</v>
+      </c>
+      <c r="E44" s="5" t="s">
         <v>466</v>
       </c>
-      <c r="E44" s="5" t="s">
-        <v>467</v>
-      </c>
       <c r="F44" s="5" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="G44" s="5"/>
       <c r="H44" s="5"/>
     </row>
     <row r="45" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="4" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C45" s="5" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D45" s="5" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="E45" s="5" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="F45" s="7">
         <v>1E-3</v>
@@ -13732,41 +13732,41 @@
     </row>
     <row r="46" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="4" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C46" s="5" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D46" s="5" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="E46" s="5" t="s">
+        <v>468</v>
+      </c>
+      <c r="F46" s="5" t="s">
         <v>469</v>
-      </c>
-      <c r="F46" s="5" t="s">
-        <v>470</v>
       </c>
       <c r="G46" s="5"/>
       <c r="H46" s="5"/>
     </row>
     <row r="47" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="4" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C47" s="5" t="s">
+        <v>470</v>
+      </c>
+      <c r="D47" s="5" t="s">
+        <v>722</v>
+      </c>
+      <c r="E47" s="5" t="s">
         <v>471</v>
-      </c>
-      <c r="D47" s="5" t="s">
-        <v>723</v>
-      </c>
-      <c r="E47" s="5" t="s">
-        <v>472</v>
       </c>
       <c r="F47" s="5">
         <v>2</v>
@@ -13776,17 +13776,17 @@
     </row>
     <row r="48" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="4" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C48" s="5" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D48" s="5"/>
       <c r="E48" s="5" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="F48" s="7">
         <v>4.9999999999999998E-7</v>
@@ -13796,37 +13796,37 @@
     </row>
     <row r="49" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="4" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C49" s="5" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D49" s="5"/>
       <c r="E49" s="5" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="F49" s="5" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="G49" s="5"/>
       <c r="H49" s="5"/>
     </row>
     <row r="50" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="4" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C50" s="5" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D50" s="5"/>
       <c r="E50" s="5" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="F50" s="7">
         <v>1.0000000000000001E-9</v>
@@ -13836,37 +13836,37 @@
     </row>
     <row r="51" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="4" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C51" s="5" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D51" s="5"/>
       <c r="E51" s="5" t="s">
+        <v>501</v>
+      </c>
+      <c r="F51" s="5" t="s">
         <v>502</v>
-      </c>
-      <c r="F51" s="5" t="s">
-        <v>503</v>
       </c>
       <c r="G51" s="5"/>
       <c r="H51" s="5"/>
     </row>
     <row r="52" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="4" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C52" s="5" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D52" s="5"/>
       <c r="E52" s="5" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="F52" s="5"/>
       <c r="G52" s="5"/>
@@ -13874,17 +13874,17 @@
     </row>
     <row r="53" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="4" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C53" s="5" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D53" s="5"/>
       <c r="E53" s="5" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="F53" s="5"/>
       <c r="G53" s="5"/>
@@ -13892,17 +13892,17 @@
     </row>
     <row r="54" spans="1:8" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="4" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C54" s="5" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D54" s="6"/>
       <c r="E54" s="6" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="F54" s="5"/>
       <c r="G54" s="5"/>
@@ -13910,17 +13910,17 @@
     </row>
     <row r="55" spans="1:8" ht="37.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="4" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C55" s="5" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D55" s="6"/>
       <c r="E55" s="6" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="F55" s="5"/>
       <c r="G55" s="5"/>
@@ -13928,17 +13928,17 @@
     </row>
     <row r="56" spans="1:8" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="4" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C56" s="5" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D56" s="6"/>
       <c r="E56" s="6" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="F56" s="5"/>
       <c r="G56" s="5"/>
@@ -13946,17 +13946,17 @@
     </row>
     <row r="57" spans="1:8" ht="37.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="4" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C57" s="5" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D57" s="6"/>
       <c r="E57" s="6" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="F57" s="5"/>
       <c r="G57" s="5"/>
@@ -13964,17 +13964,17 @@
     </row>
     <row r="58" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="4" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C58" s="5" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D58" s="5"/>
       <c r="E58" s="5" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="F58" s="5"/>
       <c r="G58" s="5"/>
@@ -13982,17 +13982,17 @@
     </row>
     <row r="59" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="4" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C59" s="5" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D59" s="5"/>
       <c r="E59" s="5" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="F59" s="5"/>
       <c r="G59" s="5"/>
@@ -14000,17 +14000,17 @@
     </row>
     <row r="60" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="4" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C60" s="5" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D60" s="5"/>
       <c r="E60" s="5" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="F60" s="5"/>
       <c r="G60" s="5"/>
@@ -14018,17 +14018,17 @@
     </row>
     <row r="61" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="4" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C61" s="5" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D61" s="5"/>
       <c r="E61" s="5" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="F61" s="5"/>
       <c r="G61" s="5"/>
@@ -14036,17 +14036,17 @@
     </row>
     <row r="62" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="4" t="s">
+        <v>522</v>
+      </c>
+      <c r="B62" s="4" t="s">
+        <v>221</v>
+      </c>
+      <c r="C62" s="5" t="s">
         <v>523</v>
-      </c>
-      <c r="B62" s="4" t="s">
-        <v>222</v>
-      </c>
-      <c r="C62" s="5" t="s">
-        <v>524</v>
       </c>
       <c r="D62" s="5"/>
       <c r="E62" s="5" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="F62" s="5"/>
       <c r="G62" s="5"/>
@@ -14054,19 +14054,19 @@
     </row>
     <row r="63" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="4" t="s">
+        <v>526</v>
+      </c>
+      <c r="B63" s="4" t="s">
+        <v>221</v>
+      </c>
+      <c r="C63" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="D63" s="5" t="s">
         <v>527</v>
       </c>
-      <c r="B63" s="4" t="s">
-        <v>222</v>
-      </c>
-      <c r="C63" s="5" t="s">
-        <v>198</v>
-      </c>
-      <c r="D63" s="5" t="s">
+      <c r="E63" s="5" t="s">
         <v>528</v>
-      </c>
-      <c r="E63" s="5" t="s">
-        <v>529</v>
       </c>
       <c r="F63" s="5"/>
       <c r="G63" s="5"/>
@@ -14074,19 +14074,19 @@
     </row>
     <row r="64" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="4" t="s">
+        <v>529</v>
+      </c>
+      <c r="B64" s="4" t="s">
+        <v>221</v>
+      </c>
+      <c r="C64" s="5" t="s">
+        <v>523</v>
+      </c>
+      <c r="D64" s="5" t="s">
         <v>530</v>
       </c>
-      <c r="B64" s="4" t="s">
-        <v>222</v>
-      </c>
-      <c r="C64" s="5" t="s">
-        <v>524</v>
-      </c>
-      <c r="D64" s="5" t="s">
+      <c r="E64" s="5" t="s">
         <v>531</v>
-      </c>
-      <c r="E64" s="5" t="s">
-        <v>532</v>
       </c>
       <c r="F64" s="5"/>
       <c r="G64" s="5"/>
@@ -14094,19 +14094,19 @@
     </row>
     <row r="65" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C65" s="5" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D65" s="5" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="E65" s="5" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="F65" s="5"/>
       <c r="G65" s="5"/>
@@ -14114,19 +14114,19 @@
     </row>
     <row r="66" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="4" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C66" s="5" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="D66" s="5" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="E66" s="5" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="F66" s="5"/>
       <c r="G66" s="5"/>
@@ -14144,7 +14144,7 @@
     </row>
     <row r="68" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="4" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="B68" s="4" t="s">
         <v>16</v>
@@ -14156,7 +14156,7 @@
         <v>78</v>
       </c>
       <c r="E68" s="5" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="F68" s="24"/>
       <c r="G68" s="5"/>
@@ -14164,7 +14164,7 @@
     </row>
     <row r="69" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="4" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="B69" s="4" t="s">
         <v>16</v>
@@ -14176,7 +14176,7 @@
         <v>79</v>
       </c>
       <c r="E69" s="5" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="F69" s="5"/>
       <c r="G69" s="5"/>
@@ -14194,17 +14194,17 @@
     </row>
     <row r="71" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="4" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="B71" s="4" t="s">
         <v>16</v>
       </c>
       <c r="C71" s="5" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D71" s="5"/>
       <c r="E71" s="5" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="F71" s="5"/>
       <c r="G71" s="5"/>
@@ -14212,17 +14212,17 @@
     </row>
     <row r="72" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="4" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="B72" s="4" t="s">
         <v>16</v>
       </c>
       <c r="C72" s="5" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D72" s="5"/>
       <c r="E72" s="5" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="F72" s="5"/>
       <c r="G72" s="5"/>
@@ -14230,17 +14230,17 @@
     </row>
     <row r="73" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="4" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="B73" s="4" t="s">
         <v>16</v>
       </c>
       <c r="C73" s="5" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="D73" s="5"/>
       <c r="E73" s="5" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="F73" s="5"/>
       <c r="G73" s="5"/>
@@ -14248,17 +14248,17 @@
     </row>
     <row r="74" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="4" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="B74" s="4" t="s">
         <v>16</v>
       </c>
       <c r="C74" s="5" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D74" s="5"/>
       <c r="E74" s="5" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="F74" s="5"/>
       <c r="G74" s="5"/>
@@ -14276,17 +14276,17 @@
     </row>
     <row r="76" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="4" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C76" s="5" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D76" s="5"/>
       <c r="E76" s="5" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="F76" s="5"/>
       <c r="G76" s="5"/>
@@ -14294,17 +14294,17 @@
     </row>
     <row r="77" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="4" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C77" s="5" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D77" s="5"/>
       <c r="E77" s="5" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="F77" s="5"/>
       <c r="G77" s="5"/>
@@ -14312,17 +14312,17 @@
     </row>
     <row r="78" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="4" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C78" s="5" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D78" s="5"/>
       <c r="E78" s="5" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="F78" s="5"/>
       <c r="G78" s="5"/>
@@ -14330,17 +14330,17 @@
     </row>
     <row r="79" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="4" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C79" s="5" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D79" s="5"/>
       <c r="E79" s="5" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="F79" s="5"/>
       <c r="G79" s="5"/>
@@ -14348,17 +14348,17 @@
     </row>
     <row r="80" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="4" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C80" s="5" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D80" s="5"/>
       <c r="E80" s="5" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="F80" s="5"/>
       <c r="G80" s="5"/>
@@ -14366,17 +14366,17 @@
     </row>
     <row r="81" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="4" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C81" s="5" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D81" s="5"/>
       <c r="E81" s="5" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="F81" s="5"/>
       <c r="G81" s="5"/>
@@ -14384,17 +14384,17 @@
     </row>
     <row r="82" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="4" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C82" s="5" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D82" s="5"/>
       <c r="E82" s="5" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="F82" s="5"/>
       <c r="G82" s="5"/>
@@ -14412,17 +14412,17 @@
     </row>
     <row r="84" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="4" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C84" s="5" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="D84" s="5"/>
       <c r="E84" s="5" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="F84" s="5"/>
       <c r="G84" s="5"/>
@@ -14430,17 +14430,17 @@
     </row>
     <row r="85" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="4" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C85" s="5" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D85" s="5"/>
       <c r="E85" s="5" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="F85" s="5"/>
       <c r="G85" s="5"/>
@@ -14448,17 +14448,17 @@
     </row>
     <row r="86" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="4" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C86" s="5" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="D86" s="5"/>
       <c r="E86" s="5" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="F86" s="5"/>
       <c r="G86" s="5"/>
@@ -14466,17 +14466,17 @@
     </row>
     <row r="87" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="4" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C87" s="5" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="D87" s="5"/>
       <c r="E87" s="5" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="F87" s="5"/>
       <c r="G87" s="5"/>
@@ -14484,17 +14484,17 @@
     </row>
     <row r="88" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="4" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C88" s="5" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="D88" s="5"/>
       <c r="E88" s="5" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="F88" s="5"/>
       <c r="G88" s="5"/>
@@ -14502,17 +14502,17 @@
     </row>
     <row r="89" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="4" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C89" s="5" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="D89" s="5"/>
       <c r="E89" s="5" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="F89" s="5"/>
       <c r="G89" s="5"/>
@@ -14520,17 +14520,17 @@
     </row>
     <row r="90" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="4" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="B90" s="4" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C90" s="5" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="D90" s="5"/>
       <c r="E90" s="5" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="F90" s="5"/>
       <c r="G90" s="5"/>
@@ -14538,17 +14538,17 @@
     </row>
     <row r="91" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="4" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C91" s="5" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="D91" s="5"/>
       <c r="E91" s="5" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="F91" s="5"/>
       <c r="G91" s="5"/>
@@ -14556,17 +14556,17 @@
     </row>
     <row r="92" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="4" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="B92" s="4" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C92" s="5" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="D92" s="5"/>
       <c r="E92" s="5" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="F92" s="5"/>
       <c r="G92" s="5"/>
@@ -14574,17 +14574,17 @@
     </row>
     <row r="93" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="4" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C93" s="5" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="D93" s="5"/>
       <c r="E93" s="5" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="F93" s="5"/>
       <c r="G93" s="5"/>
@@ -14592,17 +14592,17 @@
     </row>
     <row r="94" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="4" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="B94" s="4" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C94" s="5" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="D94" s="5"/>
       <c r="E94" s="5" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="F94" s="5"/>
       <c r="G94" s="5"/>
@@ -14610,17 +14610,17 @@
     </row>
     <row r="95" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="4" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="B95" s="4" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C95" s="5" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="D95" s="5"/>
       <c r="E95" s="5" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="F95" s="5"/>
       <c r="G95" s="5"/>
@@ -14628,19 +14628,19 @@
     </row>
     <row r="96" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="4" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="B96" s="4" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C96" s="5" t="s">
+        <v>728</v>
+      </c>
+      <c r="D96" s="5" t="s">
         <v>729</v>
       </c>
-      <c r="D96" s="5" t="s">
+      <c r="E96" s="5" t="s">
         <v>730</v>
-      </c>
-      <c r="E96" s="5" t="s">
-        <v>731</v>
       </c>
       <c r="F96" s="5"/>
       <c r="G96" s="5"/>
@@ -14648,19 +14648,19 @@
     </row>
     <row r="97" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="4" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="B97" s="4" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C97" s="5" t="s">
+        <v>731</v>
+      </c>
+      <c r="D97" s="5" t="s">
         <v>732</v>
       </c>
-      <c r="D97" s="5" t="s">
+      <c r="E97" s="5" t="s">
         <v>733</v>
-      </c>
-      <c r="E97" s="5" t="s">
-        <v>734</v>
       </c>
       <c r="F97" s="5"/>
       <c r="G97" s="5"/>
@@ -14668,19 +14668,19 @@
     </row>
     <row r="98" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="4" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="B98" s="4" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C98" s="5" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="D98" s="5" t="s">
+        <v>734</v>
+      </c>
+      <c r="E98" s="5" t="s">
         <v>735</v>
-      </c>
-      <c r="E98" s="5" t="s">
-        <v>736</v>
       </c>
       <c r="F98" s="5"/>
       <c r="G98" s="5"/>
@@ -14688,19 +14688,19 @@
     </row>
     <row r="99" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="4" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="B99" s="4" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C99" s="5" t="s">
+        <v>736</v>
+      </c>
+      <c r="D99" s="5" t="s">
         <v>737</v>
       </c>
-      <c r="D99" s="5" t="s">
+      <c r="E99" s="5" t="s">
         <v>738</v>
-      </c>
-      <c r="E99" s="5" t="s">
-        <v>739</v>
       </c>
       <c r="F99" s="5"/>
       <c r="G99" s="5"/>
@@ -15695,7 +15695,7 @@
         <v>7</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>9</v>
@@ -15710,7 +15710,7 @@
         <v>77</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="H1" s="3" t="s">
         <v>86</v>
@@ -15718,7 +15718,7 @@
     </row>
     <row r="2" spans="1:8" ht="15" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>89</v>
@@ -15727,86 +15727,86 @@
         <v>99</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="F2" s="33" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="G2" s="5"/>
       <c r="H2" s="5"/>
     </row>
     <row r="3" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="C3" s="5" t="s">
+        <v>755</v>
+      </c>
+      <c r="D3" s="5" t="s">
         <v>756</v>
       </c>
-      <c r="D3" s="5" t="s">
-        <v>757</v>
-      </c>
       <c r="E3" s="5" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="F3" s="33" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="G3" s="5"/>
       <c r="H3" s="5"/>
     </row>
     <row r="4" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="C4" s="5" t="s">
         <v>99</v>
       </c>
       <c r="D4" s="5" t="s">
+        <v>757</v>
+      </c>
+      <c r="E4" s="5" t="s">
         <v>758</v>
       </c>
-      <c r="E4" s="5" t="s">
-        <v>759</v>
-      </c>
       <c r="F4" s="33" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="G4" s="5"/>
       <c r="H4" s="5"/>
     </row>
     <row r="5" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="F5" s="33" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="G5" s="5"/>
       <c r="H5" s="5"/>
     </row>
     <row r="6" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>89</v>
@@ -15815,10 +15815,10 @@
         <v>99</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="F6" s="33">
         <v>1234567</v>
@@ -15828,19 +15828,19 @@
     </row>
     <row r="7" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="F7" s="33"/>
       <c r="G7" s="5"/>
@@ -15848,19 +15848,19 @@
     </row>
     <row r="8" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="D8" s="5" t="s">
+        <v>762</v>
+      </c>
+      <c r="E8" s="5" t="s">
         <v>763</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>764</v>
       </c>
       <c r="F8" s="33"/>
       <c r="G8" s="5"/>
@@ -15868,157 +15868,157 @@
     </row>
     <row r="9" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="C9" s="5" t="s">
         <v>99</v>
       </c>
       <c r="D9" s="5" t="s">
+        <v>764</v>
+      </c>
+      <c r="E9" s="5" t="s">
         <v>765</v>
       </c>
-      <c r="E9" s="5" t="s">
-        <v>766</v>
-      </c>
       <c r="F9" s="34" t="s">
+        <v>624</v>
+      </c>
+      <c r="G9" s="6" t="s">
         <v>625</v>
-      </c>
-      <c r="G9" s="6" t="s">
-        <v>626</v>
       </c>
       <c r="H9" s="5"/>
     </row>
     <row r="10" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>89</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="F10" s="33" t="s">
+        <v>626</v>
+      </c>
+      <c r="G10" s="5" t="s">
         <v>627</v>
-      </c>
-      <c r="G10" s="5" t="s">
-        <v>628</v>
       </c>
       <c r="H10" s="5"/>
     </row>
     <row r="11" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="C11" s="5" t="s">
         <v>99</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="F11" s="33" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="G11" s="5"/>
       <c r="H11" s="5" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>89</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="D12" s="5"/>
       <c r="E12" s="5" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="F12" s="33" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="G12" s="5"/>
       <c r="H12" s="5"/>
     </row>
     <row r="13" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>89</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="D13" s="5" t="s">
+        <v>768</v>
+      </c>
+      <c r="E13" s="5" t="s">
         <v>769</v>
       </c>
-      <c r="E13" s="5" t="s">
-        <v>770</v>
-      </c>
       <c r="F13" s="33" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="G13" s="5"/>
       <c r="H13" s="5"/>
     </row>
     <row r="14" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="D14" s="5" t="s">
+        <v>770</v>
+      </c>
+      <c r="E14" s="5" t="s">
         <v>771</v>
       </c>
-      <c r="E14" s="5" t="s">
-        <v>772</v>
-      </c>
       <c r="F14" s="33" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="G14" s="5"/>
       <c r="H14" s="5" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="B15" s="5" t="s">
+        <v>772</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>600</v>
+      </c>
+      <c r="D15" s="5" t="s">
         <v>773</v>
       </c>
-      <c r="C15" s="5" t="s">
-        <v>601</v>
-      </c>
-      <c r="D15" s="5" t="s">
+      <c r="E15" s="5" t="s">
         <v>774</v>
-      </c>
-      <c r="E15" s="5" t="s">
-        <v>775</v>
       </c>
       <c r="F15" s="33">
         <v>2</v>
@@ -16028,41 +16028,41 @@
     </row>
     <row r="16" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="B16" s="5" t="s">
+        <v>742</v>
+      </c>
+      <c r="C16" s="5" t="s">
         <v>743</v>
       </c>
-      <c r="C16" s="5" t="s">
-        <v>744</v>
-      </c>
       <c r="D16" s="5" t="s">
+        <v>775</v>
+      </c>
+      <c r="E16" s="5" t="s">
         <v>776</v>
       </c>
-      <c r="E16" s="5" t="s">
-        <v>777</v>
-      </c>
       <c r="F16" s="33" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="G16" s="5"/>
       <c r="H16" s="5"/>
     </row>
     <row r="17" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="C17" s="5" t="s">
         <v>99</v>
       </c>
       <c r="D17" s="5" t="s">
+        <v>777</v>
+      </c>
+      <c r="E17" s="5" t="s">
         <v>778</v>
-      </c>
-      <c r="E17" s="5" t="s">
-        <v>779</v>
       </c>
       <c r="F17" s="33"/>
       <c r="G17" s="5"/>
@@ -16101,7 +16101,7 @@
         <v>7</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>9</v>
@@ -16116,7 +16116,7 @@
         <v>77</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="H1" s="3" t="s">
         <v>86</v>
@@ -16124,7 +16124,7 @@
     </row>
     <row r="2" spans="1:8" ht="15" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>89</v>
@@ -16133,76 +16133,76 @@
         <v>99</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="F2" s="33" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="G2" s="5"/>
       <c r="H2" s="5"/>
     </row>
     <row r="3" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>89</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="F3" s="33" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="G3" s="5"/>
       <c r="H3" s="5"/>
     </row>
     <row r="4" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="C4" s="5" t="s">
         <v>99</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="F4" s="33" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="G4" s="5"/>
       <c r="H4" s="5"/>
     </row>
     <row r="5" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>89</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="F5" s="33">
         <v>255205</v>
@@ -16212,19 +16212,19 @@
     </row>
     <row r="6" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>89</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="F6" s="33">
         <v>987654</v>
@@ -16234,41 +16234,41 @@
     </row>
     <row r="7" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="F7" s="33" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="G7" s="5"/>
       <c r="H7" s="5"/>
     </row>
     <row r="8" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="F8" s="33"/>
       <c r="G8" s="5"/>
@@ -16276,157 +16276,157 @@
     </row>
     <row r="9" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>89</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="F9" s="34" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="G9" s="6" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="H9" s="5"/>
     </row>
     <row r="10" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="C10" s="5" t="s">
         <v>99</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="F10" s="33" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="H10" s="5"/>
     </row>
     <row r="11" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="B11" s="5" t="s">
         <v>89</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="F11" s="33" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="G11" s="5"/>
       <c r="H11" s="5" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>89</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="D12" s="5"/>
       <c r="E12" s="5" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="F12" s="33" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="G12" s="5"/>
       <c r="H12" s="5"/>
     </row>
     <row r="13" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>89</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="F13" s="33" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="G13" s="5"/>
       <c r="H13" s="5"/>
     </row>
     <row r="14" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="C14" s="5" t="s">
         <v>99</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="F14" s="33" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="G14" s="5"/>
       <c r="H14" s="5" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="B15" s="5" t="s">
         <v>89</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="F15" s="33">
         <v>0.25</v>
@@ -16436,29 +16436,29 @@
     </row>
     <row r="16" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="F16" s="33" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="G16" s="5"/>
       <c r="H16" s="5"/>
     </row>
     <row r="17" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="B17" s="5" t="s">
         <v>89</v>
@@ -16467,13 +16467,13 @@
         <v>99</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="F17" s="33" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="G17" s="5"/>
       <c r="H17" s="5"/>
@@ -16514,7 +16514,7 @@
         <v>7</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>9</v>
@@ -16529,7 +16529,7 @@
         <v>77</v>
       </c>
       <c r="G1" s="31" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="H1" s="3" t="s">
         <v>86</v>
@@ -16537,65 +16537,65 @@
     </row>
     <row r="2" spans="1:8" ht="43.8" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D2" s="5" t="s">
+        <v>802</v>
+      </c>
+      <c r="E2" s="5" t="s">
         <v>803</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>804</v>
       </c>
       <c r="F2" s="5">
         <v>300</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="H2" s="5"/>
     </row>
     <row r="3" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="B3" s="5" t="s">
+        <v>676</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>804</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>805</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>800</v>
+      </c>
+      <c r="F3" s="5" t="s">
         <v>677</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>805</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>806</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>801</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>678</v>
       </c>
       <c r="G3" s="6"/>
       <c r="H3" s="5"/>
     </row>
     <row r="4" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="C4" s="5" t="s">
+        <v>806</v>
+      </c>
+      <c r="D4" s="5" t="s">
         <v>807</v>
       </c>
-      <c r="D4" s="5" t="s">
-        <v>808</v>
-      </c>
       <c r="E4" s="5" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="F4" s="5"/>
       <c r="G4" s="6"/>
@@ -16603,41 +16603,41 @@
     </row>
     <row r="5" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="D5" s="5" t="s">
+        <v>808</v>
+      </c>
+      <c r="E5" s="5" t="s">
         <v>809</v>
       </c>
-      <c r="E5" s="5" t="s">
-        <v>810</v>
-      </c>
       <c r="F5" s="5" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="G5" s="6"/>
       <c r="H5" s="5"/>
     </row>
     <row r="6" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="C6" s="5" t="s">
         <v>90</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="F6" s="5"/>
       <c r="G6" s="6"/>
@@ -16645,29 +16645,29 @@
     </row>
     <row r="7" spans="1:8" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="D7" s="5" t="s">
+        <v>811</v>
+      </c>
+      <c r="E7" s="5" t="s">
         <v>812</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>813</v>
       </c>
       <c r="F7" s="5"/>
       <c r="G7" s="6"/>
       <c r="H7" s="6" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>89</v>
@@ -16676,32 +16676,32 @@
         <v>99</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="G8" s="6"/>
       <c r="H8" s="5"/>
     </row>
     <row r="9" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="C9" s="5" t="s">
+        <v>814</v>
+      </c>
+      <c r="D9" s="5" t="s">
         <v>815</v>
       </c>
-      <c r="D9" s="5" t="s">
-        <v>816</v>
-      </c>
       <c r="E9" s="5" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="F9" s="5"/>
       <c r="G9" s="6"/>
@@ -16709,7 +16709,7 @@
     </row>
     <row r="10" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>89</v>
@@ -16718,20 +16718,20 @@
         <v>99</v>
       </c>
       <c r="D10" s="5" t="s">
+        <v>816</v>
+      </c>
+      <c r="E10" s="5" t="s">
         <v>817</v>
       </c>
-      <c r="E10" s="5" t="s">
+      <c r="F10" s="5" t="s">
         <v>818</v>
-      </c>
-      <c r="F10" s="5" t="s">
-        <v>819</v>
       </c>
       <c r="G10" s="6"/>
       <c r="H10" s="5"/>
     </row>
     <row r="11" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="B11" s="5" t="s">
         <v>89</v>
@@ -16740,13 +16740,13 @@
         <v>99</v>
       </c>
       <c r="D11" s="13" t="s">
+        <v>846</v>
+      </c>
+      <c r="E11" s="5" t="s">
         <v>847</v>
       </c>
-      <c r="E11" s="5" t="s">
+      <c r="F11" s="5" t="s">
         <v>848</v>
-      </c>
-      <c r="F11" s="5" t="s">
-        <v>849</v>
       </c>
       <c r="G11" s="6"/>
       <c r="H11" s="5"/>

--- a/draft/20221212/metadata_schema-xafs.xlsx
+++ b/draft/20221212/metadata_schema-xafs.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1276" uniqueCount="854">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1283" uniqueCount="854">
   <si>
     <t>シート名</t>
   </si>
@@ -9239,9 +9239,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I1003"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="A48" sqref="A47:A48"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.59765625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
@@ -9528,7 +9526,9 @@
       <c r="F12" s="5" t="s">
         <v>131</v>
       </c>
-      <c r="G12" s="5"/>
+      <c r="G12" s="5" t="s">
+        <v>128</v>
+      </c>
       <c r="H12" s="5" t="s">
         <v>128</v>
       </c>
@@ -10558,9 +10558,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B60" sqref="B60"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
@@ -10806,7 +10804,9 @@
       <c r="F11" s="19" t="s">
         <v>366</v>
       </c>
-      <c r="G11" s="19"/>
+      <c r="G11" s="19" t="s">
+        <v>367</v>
+      </c>
       <c r="H11" s="19" t="s">
         <v>367</v>
       </c>
@@ -12765,7 +12765,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H1058"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.59765625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
@@ -15933,7 +15933,9 @@
       <c r="F11" s="33" t="s">
         <v>664</v>
       </c>
-      <c r="G11" s="5"/>
+      <c r="G11" s="5" t="s">
+        <v>663</v>
+      </c>
       <c r="H11" s="5" t="s">
         <v>663</v>
       </c>
@@ -15999,7 +16001,9 @@
       <c r="F14" s="33" t="s">
         <v>667</v>
       </c>
-      <c r="G14" s="5"/>
+      <c r="G14" s="5" t="s">
+        <v>851</v>
+      </c>
       <c r="H14" s="5" t="s">
         <v>851</v>
       </c>
@@ -16081,9 +16085,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D61" sqref="D61"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
@@ -16341,7 +16343,9 @@
       <c r="F11" s="33" t="s">
         <v>661</v>
       </c>
-      <c r="G11" s="5"/>
+      <c r="G11" s="5" t="s">
+        <v>663</v>
+      </c>
       <c r="H11" s="5" t="s">
         <v>663</v>
       </c>
@@ -16407,7 +16411,9 @@
       <c r="F14" s="33" t="s">
         <v>671</v>
       </c>
-      <c r="G14" s="5"/>
+      <c r="G14" s="5" t="s">
+        <v>851</v>
+      </c>
       <c r="H14" s="5" t="s">
         <v>852</v>
       </c>
@@ -16660,7 +16666,9 @@
         <v>812</v>
       </c>
       <c r="F7" s="5"/>
-      <c r="G7" s="6"/>
+      <c r="G7" s="6" t="s">
+        <v>849</v>
+      </c>
       <c r="H7" s="6" t="s">
         <v>849</v>
       </c>

--- a/draft/20221212/metadata_schema-xafs.xlsx
+++ b/draft/20221212/metadata_schema-xafs.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1283" uniqueCount="854">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1274" uniqueCount="854">
   <si>
     <t>シート名</t>
   </si>
@@ -7888,9 +7888,7 @@
       <c r="F5" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="G5" s="5" t="s">
-        <v>420</v>
-      </c>
+      <c r="G5" s="5"/>
       <c r="H5" s="5" t="s">
         <v>420</v>
       </c>
@@ -7990,9 +7988,7 @@
       <c r="F10" s="5" t="s">
         <v>425</v>
       </c>
-      <c r="G10" s="6" t="s">
-        <v>853</v>
-      </c>
+      <c r="G10" s="6"/>
       <c r="H10" s="6" t="s">
         <v>853</v>
       </c>
@@ -9526,9 +9522,7 @@
       <c r="F12" s="5" t="s">
         <v>131</v>
       </c>
-      <c r="G12" s="5" t="s">
-        <v>128</v>
-      </c>
+      <c r="G12" s="5"/>
       <c r="H12" s="5" t="s">
         <v>128</v>
       </c>
@@ -10566,7 +10560,7 @@
     <col min="4" max="4" width="29.3984375" customWidth="1"/>
     <col min="5" max="5" width="28.5" customWidth="1"/>
     <col min="6" max="6" width="19.09765625" customWidth="1"/>
-    <col min="7" max="7" width="21.69921875" customWidth="1"/>
+    <col min="7" max="7" width="16" customWidth="1"/>
     <col min="8" max="8" width="15.19921875" customWidth="1"/>
   </cols>
   <sheetData>
@@ -10804,9 +10798,7 @@
       <c r="F11" s="19" t="s">
         <v>366</v>
       </c>
-      <c r="G11" s="19" t="s">
-        <v>367</v>
-      </c>
+      <c r="G11" s="19"/>
       <c r="H11" s="19" t="s">
         <v>367</v>
       </c>
@@ -15680,7 +15672,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="47.3984375" customWidth="1"/>
+    <col min="1" max="1" width="45.69921875" customWidth="1"/>
     <col min="2" max="2" width="12.3984375" customWidth="1"/>
     <col min="3" max="3" width="12.8984375" customWidth="1"/>
     <col min="4" max="4" width="31.3984375" customWidth="1"/>
@@ -15933,9 +15925,7 @@
       <c r="F11" s="33" t="s">
         <v>664</v>
       </c>
-      <c r="G11" s="5" t="s">
-        <v>663</v>
-      </c>
+      <c r="G11" s="5"/>
       <c r="H11" s="5" t="s">
         <v>663</v>
       </c>
@@ -16001,9 +15991,7 @@
       <c r="F14" s="33" t="s">
         <v>667</v>
       </c>
-      <c r="G14" s="5" t="s">
-        <v>851</v>
-      </c>
+      <c r="G14" s="5"/>
       <c r="H14" s="5" t="s">
         <v>851</v>
       </c>
@@ -16343,9 +16331,7 @@
       <c r="F11" s="33" t="s">
         <v>661</v>
       </c>
-      <c r="G11" s="5" t="s">
-        <v>663</v>
-      </c>
+      <c r="G11" s="5"/>
       <c r="H11" s="5" t="s">
         <v>663</v>
       </c>
@@ -16411,9 +16397,7 @@
       <c r="F14" s="33" t="s">
         <v>671</v>
       </c>
-      <c r="G14" s="5" t="s">
-        <v>851</v>
-      </c>
+      <c r="G14" s="5"/>
       <c r="H14" s="5" t="s">
         <v>852</v>
       </c>
@@ -16666,9 +16650,7 @@
         <v>812</v>
       </c>
       <c r="F7" s="5"/>
-      <c r="G7" s="6" t="s">
-        <v>849</v>
-      </c>
+      <c r="G7" s="6"/>
       <c r="H7" s="6" t="s">
         <v>849</v>
       </c>
